--- a/Student_List_Upload_File.xlsx
+++ b/Student_List_Upload_File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 9\SEP490\UniEXETask-SourceCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 9\SEP490\UniEXETask-SourceCode\uniexetask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9919FA-54C0-43DB-96F6-56D60BD2CDCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E340B6C4-9351-4066-8018-185B6C4623A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="567">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +40,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Khoi</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -478,111 +472,6 @@
     <t>Bùi Văn Thu</t>
   </si>
   <si>
-    <t>Đặng Thanh Đạt</t>
-  </si>
-  <si>
-    <t>Ngô Thảo Thu</t>
-  </si>
-  <si>
-    <t>Ngô Minh Yến</t>
-  </si>
-  <si>
-    <t>Bùi Quỳnh Yến</t>
-  </si>
-  <si>
-    <t>Bùi Chí Hùng</t>
-  </si>
-  <si>
-    <t>Dương Mai Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Khánh</t>
-  </si>
-  <si>
-    <t>Hồ Hữu Đạt</t>
-  </si>
-  <si>
-    <t>Lê Tuấn Huy</t>
-  </si>
-  <si>
-    <t>Ngô Ngọc Trang</t>
-  </si>
-  <si>
-    <t>Lê Quỳnh Đạt</t>
-  </si>
-  <si>
-    <t>Hồ Văn Huy</t>
-  </si>
-  <si>
-    <t>Phạm Chí Tâm</t>
-  </si>
-  <si>
-    <t>Trần Thảo Hoa</t>
-  </si>
-  <si>
-    <t>Đặng Phương Thu</t>
-  </si>
-  <si>
-    <t>Dương Minh Bảo</t>
-  </si>
-  <si>
-    <t>Ngô Hữu Đạt</t>
-  </si>
-  <si>
-    <t>Võ Tuấn Nam</t>
-  </si>
-  <si>
-    <t>Đỗ Thanh Khánh</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Khánh</t>
-  </si>
-  <si>
-    <t>Võ Mai Hoa</t>
-  </si>
-  <si>
-    <t>Bùi Quỳnh Bảo</t>
-  </si>
-  <si>
-    <t>Bùi Anh Huy</t>
-  </si>
-  <si>
-    <t>Ngô Tuấn Hà</t>
-  </si>
-  <si>
-    <t>Lý Thảo Hoa</t>
-  </si>
-  <si>
-    <t>Lê Anh Nam</t>
-  </si>
-  <si>
-    <t>Phạm Anh Huy</t>
-  </si>
-  <si>
-    <t>Đặng Thị Hoa</t>
-  </si>
-  <si>
-    <t>Lý Minh Thu</t>
-  </si>
-  <si>
-    <t>Võ Quỳnh Hà</t>
-  </si>
-  <si>
-    <t>Đỗ Chí Tâm</t>
-  </si>
-  <si>
-    <t>Lý Hữu Bảo</t>
-  </si>
-  <si>
-    <t>Phạm Thảo Thu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tâm</t>
-  </si>
-  <si>
-    <t>Lê Chí Bảo</t>
-  </si>
-  <si>
     <t>Uniexetask123456</t>
   </si>
   <si>
@@ -1018,114 +907,6 @@
     <t>student144@generated.edu.vn</t>
   </si>
   <si>
-    <t>student145@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student146@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student147@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student148@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student149@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student150@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student151@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student152@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student153@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student154@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student155@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student156@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student157@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student158@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student159@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student160@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student161@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student162@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student163@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student164@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student165@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student166@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student167@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student168@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student169@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student170@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student171@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student172@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student173@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student174@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student175@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student176@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student177@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student178@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student179@generated.edu.vn</t>
-  </si>
-  <si>
-    <t>student180@generated.edu.vn</t>
-  </si>
-  <si>
     <t>FPT-HN</t>
   </si>
   <si>
@@ -1156,546 +937,6 @@
     <t>EXE201</t>
   </si>
   <si>
-    <t>IN160001</t>
-  </si>
-  <si>
-    <t>GR170002</t>
-  </si>
-  <si>
-    <t>IN190003</t>
-  </si>
-  <si>
-    <t>IN170004</t>
-  </si>
-  <si>
-    <t>SO170005</t>
-  </si>
-  <si>
-    <t>SO160006</t>
-  </si>
-  <si>
-    <t>GR170007</t>
-  </si>
-  <si>
-    <t>SO160008</t>
-  </si>
-  <si>
-    <t>GR160009</t>
-  </si>
-  <si>
-    <t>IN180010</t>
-  </si>
-  <si>
-    <t>SO170011</t>
-  </si>
-  <si>
-    <t>DI180012</t>
-  </si>
-  <si>
-    <t>DI190013</t>
-  </si>
-  <si>
-    <t>IN170014</t>
-  </si>
-  <si>
-    <t>DI190015</t>
-  </si>
-  <si>
-    <t>IN190016</t>
-  </si>
-  <si>
-    <t>DI180017</t>
-  </si>
-  <si>
-    <t>DI190018</t>
-  </si>
-  <si>
-    <t>DI180019</t>
-  </si>
-  <si>
-    <t>DI190020</t>
-  </si>
-  <si>
-    <t>IN160021</t>
-  </si>
-  <si>
-    <t>IN170022</t>
-  </si>
-  <si>
-    <t>GR180023</t>
-  </si>
-  <si>
-    <t>DI160024</t>
-  </si>
-  <si>
-    <t>SO190025</t>
-  </si>
-  <si>
-    <t>DI160026</t>
-  </si>
-  <si>
-    <t>DI170027</t>
-  </si>
-  <si>
-    <t>GR160028</t>
-  </si>
-  <si>
-    <t>IN170029</t>
-  </si>
-  <si>
-    <t>IN180030</t>
-  </si>
-  <si>
-    <t>IN160031</t>
-  </si>
-  <si>
-    <t>SO160032</t>
-  </si>
-  <si>
-    <t>DI180033</t>
-  </si>
-  <si>
-    <t>IN180034</t>
-  </si>
-  <si>
-    <t>SO180035</t>
-  </si>
-  <si>
-    <t>GR170036</t>
-  </si>
-  <si>
-    <t>SO190037</t>
-  </si>
-  <si>
-    <t>DI190038</t>
-  </si>
-  <si>
-    <t>SO180039</t>
-  </si>
-  <si>
-    <t>SO180040</t>
-  </si>
-  <si>
-    <t>IN190041</t>
-  </si>
-  <si>
-    <t>IN180042</t>
-  </si>
-  <si>
-    <t>SO190043</t>
-  </si>
-  <si>
-    <t>SO160044</t>
-  </si>
-  <si>
-    <t>DI170045</t>
-  </si>
-  <si>
-    <t>DI160046</t>
-  </si>
-  <si>
-    <t>DI190047</t>
-  </si>
-  <si>
-    <t>GR180048</t>
-  </si>
-  <si>
-    <t>GR160049</t>
-  </si>
-  <si>
-    <t>SO180050</t>
-  </si>
-  <si>
-    <t>SO170051</t>
-  </si>
-  <si>
-    <t>DI160052</t>
-  </si>
-  <si>
-    <t>DI190053</t>
-  </si>
-  <si>
-    <t>DI160054</t>
-  </si>
-  <si>
-    <t>SO160055</t>
-  </si>
-  <si>
-    <t>IN160056</t>
-  </si>
-  <si>
-    <t>SO190057</t>
-  </si>
-  <si>
-    <t>SO170058</t>
-  </si>
-  <si>
-    <t>GR160059</t>
-  </si>
-  <si>
-    <t>SO190060</t>
-  </si>
-  <si>
-    <t>GR180061</t>
-  </si>
-  <si>
-    <t>DI180062</t>
-  </si>
-  <si>
-    <t>DI190063</t>
-  </si>
-  <si>
-    <t>DI170064</t>
-  </si>
-  <si>
-    <t>IN190065</t>
-  </si>
-  <si>
-    <t>GR180066</t>
-  </si>
-  <si>
-    <t>IN180067</t>
-  </si>
-  <si>
-    <t>GR160068</t>
-  </si>
-  <si>
-    <t>DI190069</t>
-  </si>
-  <si>
-    <t>DI180070</t>
-  </si>
-  <si>
-    <t>SO160071</t>
-  </si>
-  <si>
-    <t>IN170072</t>
-  </si>
-  <si>
-    <t>DI180073</t>
-  </si>
-  <si>
-    <t>IN170074</t>
-  </si>
-  <si>
-    <t>IN160075</t>
-  </si>
-  <si>
-    <t>GR190076</t>
-  </si>
-  <si>
-    <t>IN190077</t>
-  </si>
-  <si>
-    <t>DI180078</t>
-  </si>
-  <si>
-    <t>SO190079</t>
-  </si>
-  <si>
-    <t>GR190080</t>
-  </si>
-  <si>
-    <t>GR190081</t>
-  </si>
-  <si>
-    <t>IN180082</t>
-  </si>
-  <si>
-    <t>SO170083</t>
-  </si>
-  <si>
-    <t>IN170084</t>
-  </si>
-  <si>
-    <t>SO180085</t>
-  </si>
-  <si>
-    <t>GR160086</t>
-  </si>
-  <si>
-    <t>SO180087</t>
-  </si>
-  <si>
-    <t>DI190088</t>
-  </si>
-  <si>
-    <t>IN190089</t>
-  </si>
-  <si>
-    <t>IN170090</t>
-  </si>
-  <si>
-    <t>SO180091</t>
-  </si>
-  <si>
-    <t>IN190092</t>
-  </si>
-  <si>
-    <t>DI160093</t>
-  </si>
-  <si>
-    <t>GR190094</t>
-  </si>
-  <si>
-    <t>GR160095</t>
-  </si>
-  <si>
-    <t>IN190096</t>
-  </si>
-  <si>
-    <t>SO170097</t>
-  </si>
-  <si>
-    <t>GR160098</t>
-  </si>
-  <si>
-    <t>IN170099</t>
-  </si>
-  <si>
-    <t>GR190100</t>
-  </si>
-  <si>
-    <t>DI180101</t>
-  </si>
-  <si>
-    <t>GR170102</t>
-  </si>
-  <si>
-    <t>DI180103</t>
-  </si>
-  <si>
-    <t>SO160104</t>
-  </si>
-  <si>
-    <t>DI190105</t>
-  </si>
-  <si>
-    <t>SO190106</t>
-  </si>
-  <si>
-    <t>DI170107</t>
-  </si>
-  <si>
-    <t>SO180108</t>
-  </si>
-  <si>
-    <t>DI190109</t>
-  </si>
-  <si>
-    <t>GR190110</t>
-  </si>
-  <si>
-    <t>GR190111</t>
-  </si>
-  <si>
-    <t>DI180112</t>
-  </si>
-  <si>
-    <t>GR170113</t>
-  </si>
-  <si>
-    <t>IN180114</t>
-  </si>
-  <si>
-    <t>IN190115</t>
-  </si>
-  <si>
-    <t>DI160116</t>
-  </si>
-  <si>
-    <t>SO190117</t>
-  </si>
-  <si>
-    <t>SO190118</t>
-  </si>
-  <si>
-    <t>IN190119</t>
-  </si>
-  <si>
-    <t>GR160120</t>
-  </si>
-  <si>
-    <t>SO190121</t>
-  </si>
-  <si>
-    <t>DI190122</t>
-  </si>
-  <si>
-    <t>SO190123</t>
-  </si>
-  <si>
-    <t>GR160124</t>
-  </si>
-  <si>
-    <t>DI170125</t>
-  </si>
-  <si>
-    <t>GR170126</t>
-  </si>
-  <si>
-    <t>GR190127</t>
-  </si>
-  <si>
-    <t>IN170128</t>
-  </si>
-  <si>
-    <t>SO160129</t>
-  </si>
-  <si>
-    <t>IN180130</t>
-  </si>
-  <si>
-    <t>IN160131</t>
-  </si>
-  <si>
-    <t>SO170132</t>
-  </si>
-  <si>
-    <t>DI190133</t>
-  </si>
-  <si>
-    <t>DI170134</t>
-  </si>
-  <si>
-    <t>DI190135</t>
-  </si>
-  <si>
-    <t>GR160136</t>
-  </si>
-  <si>
-    <t>DI160137</t>
-  </si>
-  <si>
-    <t>DI160138</t>
-  </si>
-  <si>
-    <t>DI160139</t>
-  </si>
-  <si>
-    <t>SO190140</t>
-  </si>
-  <si>
-    <t>IN170141</t>
-  </si>
-  <si>
-    <t>IN160142</t>
-  </si>
-  <si>
-    <t>DI170143</t>
-  </si>
-  <si>
-    <t>DI190144</t>
-  </si>
-  <si>
-    <t>GR170145</t>
-  </si>
-  <si>
-    <t>SO170146</t>
-  </si>
-  <si>
-    <t>SO160147</t>
-  </si>
-  <si>
-    <t>GR180148</t>
-  </si>
-  <si>
-    <t>IN180149</t>
-  </si>
-  <si>
-    <t>GR180150</t>
-  </si>
-  <si>
-    <t>IN180151</t>
-  </si>
-  <si>
-    <t>GR180152</t>
-  </si>
-  <si>
-    <t>DI160153</t>
-  </si>
-  <si>
-    <t>IN170154</t>
-  </si>
-  <si>
-    <t>SO160155</t>
-  </si>
-  <si>
-    <t>IN190156</t>
-  </si>
-  <si>
-    <t>GR180157</t>
-  </si>
-  <si>
-    <t>GR160158</t>
-  </si>
-  <si>
-    <t>SO160159</t>
-  </si>
-  <si>
-    <t>IN190160</t>
-  </si>
-  <si>
-    <t>GR170161</t>
-  </si>
-  <si>
-    <t>IN180162</t>
-  </si>
-  <si>
-    <t>SO190163</t>
-  </si>
-  <si>
-    <t>DI190164</t>
-  </si>
-  <si>
-    <t>DI190165</t>
-  </si>
-  <si>
-    <t>GR180166</t>
-  </si>
-  <si>
-    <t>IN180167</t>
-  </si>
-  <si>
-    <t>IN180168</t>
-  </si>
-  <si>
-    <t>DI170169</t>
-  </si>
-  <si>
-    <t>GR190170</t>
-  </si>
-  <si>
-    <t>DI170171</t>
-  </si>
-  <si>
-    <t>IN170172</t>
-  </si>
-  <si>
-    <t>IN160173</t>
-  </si>
-  <si>
-    <t>GR190174</t>
-  </si>
-  <si>
-    <t>SO180175</t>
-  </si>
-  <si>
-    <t>IN170176</t>
-  </si>
-  <si>
-    <t>IN160177</t>
-  </si>
-  <si>
-    <t>IN180178</t>
-  </si>
-  <si>
-    <t>GR170179</t>
-  </si>
-  <si>
-    <t>SO190180</t>
-  </si>
-  <si>
     <t>International Business</t>
   </si>
   <si>
@@ -1721,6 +962,498 @@
   </si>
   <si>
     <t>mentor5@uniexetask.com</t>
+  </si>
+  <si>
+    <t>Binh Gold</t>
+  </si>
+  <si>
+    <t>hb1234tv@gmail.com</t>
+  </si>
+  <si>
+    <t>SE169696</t>
+  </si>
+  <si>
+    <t>Nguyen Van An</t>
+  </si>
+  <si>
+    <t>ht1234tv@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE168080</t>
+  </si>
+  <si>
+    <t>Le Thi Mai</t>
+  </si>
+  <si>
+    <t>mai1234@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Tran Thi Lan</t>
+  </si>
+  <si>
+    <t>lan5678@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Pham Minh Tu</t>
+  </si>
+  <si>
+    <t>tu8765@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE169699</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Kim</t>
+  </si>
+  <si>
+    <t>kim5432@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>SE169700</t>
+  </si>
+  <si>
+    <t>IB160001</t>
+  </si>
+  <si>
+    <t>GD170002</t>
+  </si>
+  <si>
+    <t>IB190003</t>
+  </si>
+  <si>
+    <t>SS190015</t>
+  </si>
+  <si>
+    <t>IB190016</t>
+  </si>
+  <si>
+    <t>SS180017</t>
+  </si>
+  <si>
+    <t>SS190018</t>
+  </si>
+  <si>
+    <t>SS180019</t>
+  </si>
+  <si>
+    <t>SS190020</t>
+  </si>
+  <si>
+    <t>IB170022</t>
+  </si>
+  <si>
+    <t>GD180023</t>
+  </si>
+  <si>
+    <t>SE190025</t>
+  </si>
+  <si>
+    <t>SS170027</t>
+  </si>
+  <si>
+    <t>IB170029</t>
+  </si>
+  <si>
+    <t>IB180030</t>
+  </si>
+  <si>
+    <t>IB180034</t>
+  </si>
+  <si>
+    <t>SE180035</t>
+  </si>
+  <si>
+    <t>GD170036</t>
+  </si>
+  <si>
+    <t>SE190037</t>
+  </si>
+  <si>
+    <t>SS190038</t>
+  </si>
+  <si>
+    <t>SE180039</t>
+  </si>
+  <si>
+    <t>SE180040</t>
+  </si>
+  <si>
+    <t>IB190041</t>
+  </si>
+  <si>
+    <t>IB180042</t>
+  </si>
+  <si>
+    <t>SE190043</t>
+  </si>
+  <si>
+    <t>SS170045</t>
+  </si>
+  <si>
+    <t>SS190047</t>
+  </si>
+  <si>
+    <t>GD180048</t>
+  </si>
+  <si>
+    <t>SE180050</t>
+  </si>
+  <si>
+    <t>SE170051</t>
+  </si>
+  <si>
+    <t>SS190053</t>
+  </si>
+  <si>
+    <t>SE190057</t>
+  </si>
+  <si>
+    <t>SE170058</t>
+  </si>
+  <si>
+    <t>SE190060</t>
+  </si>
+  <si>
+    <t>GD180061</t>
+  </si>
+  <si>
+    <t>SS180062</t>
+  </si>
+  <si>
+    <t>SS190063</t>
+  </si>
+  <si>
+    <t>SS170064</t>
+  </si>
+  <si>
+    <t>IB190065</t>
+  </si>
+  <si>
+    <t>GD180066</t>
+  </si>
+  <si>
+    <t>IB180067</t>
+  </si>
+  <si>
+    <t>GD160068</t>
+  </si>
+  <si>
+    <t>SS190069</t>
+  </si>
+  <si>
+    <t>SS180070</t>
+  </si>
+  <si>
+    <t>IB170072</t>
+  </si>
+  <si>
+    <t>SS180073</t>
+  </si>
+  <si>
+    <t>IB170074</t>
+  </si>
+  <si>
+    <t>GD190076</t>
+  </si>
+  <si>
+    <t>IB190077</t>
+  </si>
+  <si>
+    <t>SS180078</t>
+  </si>
+  <si>
+    <t>SE190079</t>
+  </si>
+  <si>
+    <t>GD190080</t>
+  </si>
+  <si>
+    <t>GD190081</t>
+  </si>
+  <si>
+    <t>IB180082</t>
+  </si>
+  <si>
+    <t>SE170083</t>
+  </si>
+  <si>
+    <t>IB170084</t>
+  </si>
+  <si>
+    <t>SE180085</t>
+  </si>
+  <si>
+    <t>SE180087</t>
+  </si>
+  <si>
+    <t>SS190088</t>
+  </si>
+  <si>
+    <t>IB190089</t>
+  </si>
+  <si>
+    <t>IB170090</t>
+  </si>
+  <si>
+    <t>SE180091</t>
+  </si>
+  <si>
+    <t>IB190092</t>
+  </si>
+  <si>
+    <t>GD190094</t>
+  </si>
+  <si>
+    <t>IB190096</t>
+  </si>
+  <si>
+    <t>SE170097</t>
+  </si>
+  <si>
+    <t>IB170099</t>
+  </si>
+  <si>
+    <t>GD190100</t>
+  </si>
+  <si>
+    <t>SS180101</t>
+  </si>
+  <si>
+    <t>GD170102</t>
+  </si>
+  <si>
+    <t>SS180103</t>
+  </si>
+  <si>
+    <t>SS190105</t>
+  </si>
+  <si>
+    <t>SE190106</t>
+  </si>
+  <si>
+    <t>SS170107</t>
+  </si>
+  <si>
+    <t>SE180108</t>
+  </si>
+  <si>
+    <t>SS190109</t>
+  </si>
+  <si>
+    <t>GD190110</t>
+  </si>
+  <si>
+    <t>GD190111</t>
+  </si>
+  <si>
+    <t>SS180112</t>
+  </si>
+  <si>
+    <t>GD170113</t>
+  </si>
+  <si>
+    <t>IB180114</t>
+  </si>
+  <si>
+    <t>IB190115</t>
+  </si>
+  <si>
+    <t>SE190117</t>
+  </si>
+  <si>
+    <t>SE190118</t>
+  </si>
+  <si>
+    <t>IB190119</t>
+  </si>
+  <si>
+    <t>SE190121</t>
+  </si>
+  <si>
+    <t>SS190122</t>
+  </si>
+  <si>
+    <t>SE190123</t>
+  </si>
+  <si>
+    <t>SS170125</t>
+  </si>
+  <si>
+    <t>GD170126</t>
+  </si>
+  <si>
+    <t>GD190127</t>
+  </si>
+  <si>
+    <t>IB170128</t>
+  </si>
+  <si>
+    <t>IB180130</t>
+  </si>
+  <si>
+    <t>SE170132</t>
+  </si>
+  <si>
+    <t>SS190133</t>
+  </si>
+  <si>
+    <t>SS170134</t>
+  </si>
+  <si>
+    <t>SS190135</t>
+  </si>
+  <si>
+    <t>SE190140</t>
+  </si>
+  <si>
+    <t>IB170141</t>
+  </si>
+  <si>
+    <t>SS170143</t>
+  </si>
+  <si>
+    <t>SS190144</t>
+  </si>
+  <si>
+    <t>SS169697</t>
+  </si>
+  <si>
+    <t>IB169698</t>
+  </si>
+  <si>
+    <t>IB187010</t>
+  </si>
+  <si>
+    <t>IB177004</t>
+  </si>
+  <si>
+    <t>SE177005</t>
+  </si>
+  <si>
+    <t>GD167009</t>
+  </si>
+  <si>
+    <t>SE167008</t>
+  </si>
+  <si>
+    <t>GD17007</t>
+  </si>
+  <si>
+    <t>SE167006</t>
+  </si>
+  <si>
+    <t>SE177011</t>
+  </si>
+  <si>
+    <t>SS187012</t>
+  </si>
+  <si>
+    <t>SS197013</t>
+  </si>
+  <si>
+    <t>IB177014</t>
+  </si>
+  <si>
+    <t>IB168021</t>
+  </si>
+  <si>
+    <t>SS168024</t>
+  </si>
+  <si>
+    <t>SS168026</t>
+  </si>
+  <si>
+    <t>GD168028</t>
+  </si>
+  <si>
+    <t>IB168031</t>
+  </si>
+  <si>
+    <t>SE168032</t>
+  </si>
+  <si>
+    <t>SS188033</t>
+  </si>
+  <si>
+    <t>SE168044</t>
+  </si>
+  <si>
+    <t>SS168046</t>
+  </si>
+  <si>
+    <t>GD168049</t>
+  </si>
+  <si>
+    <t>SS168052</t>
+  </si>
+  <si>
+    <t>SS168054</t>
+  </si>
+  <si>
+    <t>SE168855</t>
+  </si>
+  <si>
+    <t>IB168056</t>
+  </si>
+  <si>
+    <t>GD168059</t>
+  </si>
+  <si>
+    <t>SE168071</t>
+  </si>
+  <si>
+    <t>IB168075</t>
+  </si>
+  <si>
+    <t>GD168086</t>
+  </si>
+  <si>
+    <t>SS168093</t>
+  </si>
+  <si>
+    <t>GD168095</t>
+  </si>
+  <si>
+    <t>GD168098</t>
+  </si>
+  <si>
+    <t>SE168104</t>
+  </si>
+  <si>
+    <t>SS168116</t>
+  </si>
+  <si>
+    <t>GD168120</t>
+  </si>
+  <si>
+    <t>GD168124</t>
+  </si>
+  <si>
+    <t>SE168129</t>
+  </si>
+  <si>
+    <t>IB168131</t>
+  </si>
+  <si>
+    <t>GD168136</t>
+  </si>
+  <si>
+    <t>SS168137</t>
+  </si>
+  <si>
+    <t>SS168138</t>
+  </si>
+  <si>
+    <t>SS168139</t>
+  </si>
+  <si>
+    <t>IB168142</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -2122,9 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2132,6 +1867,9 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -2139,40 +1877,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2180,37 +1918,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="E2">
-        <v>95000001</v>
+        <v>96700001</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="K2" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L2" t="s">
-        <v>562</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2218,37 +1956,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="E3">
-        <v>95000002</v>
+        <v>96700002</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J3" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="K3" t="s">
-        <v>559</v>
+        <v>307</v>
       </c>
       <c r="L3" t="s">
-        <v>562</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2256,37 +1994,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="E4">
-        <v>95000003</v>
+        <v>96700003</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G4" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J4" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="K4" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L4" t="s">
-        <v>562</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2294,37 +2032,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="E5">
-        <v>95000004</v>
+        <v>96700004</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H5" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I5" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J5" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="K5" t="s">
-        <v>558</v>
+        <v>305</v>
       </c>
       <c r="L5" t="s">
-        <v>562</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2332,37 +2070,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="E6">
-        <v>95000005</v>
+        <v>96700005</v>
       </c>
       <c r="F6" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J6" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="K6" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L6" t="s">
-        <v>562</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2370,37 +2108,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="E7">
-        <v>95000006</v>
+        <v>96700006</v>
       </c>
       <c r="F7" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J7" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="K7" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L7" t="s">
-        <v>562</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2408,37 +2146,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="E8">
-        <v>95000007</v>
+        <v>96700007</v>
       </c>
       <c r="F8" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J8" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="K8" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2446,37 +2184,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="E9">
-        <v>95000008</v>
+        <v>96700008</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J9" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="K9" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L9" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2484,37 +2222,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E10">
-        <v>95000009</v>
+        <v>96700009</v>
       </c>
       <c r="F10" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H10" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="K10" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L10" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2522,37 +2260,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="E11">
-        <v>95000010</v>
+        <v>96700010</v>
       </c>
       <c r="F11" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="K11" t="s">
-        <v>558</v>
+        <v>305</v>
       </c>
       <c r="L11" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2560,37 +2298,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="E12">
-        <v>95000011</v>
+        <v>96700011</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H12" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J12" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="K12" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L12" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2598,37 +2336,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="E13">
-        <v>95000012</v>
+        <v>96700012</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I13" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J13" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="K13" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L13" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2636,37 +2374,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E14">
-        <v>95000013</v>
+        <v>96700013</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H14" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I14" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J14" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K14" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="L14" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,37 +2412,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="E15">
-        <v>95000014</v>
+        <v>96700014</v>
       </c>
       <c r="F15" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I15" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J15" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="K15" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L15" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2712,37 +2450,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="E16">
-        <v>95000015</v>
+        <v>96700015</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I16" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J16" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="K16" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="L16" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2750,37 +2488,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E17">
-        <v>95000016</v>
+        <v>96700016</v>
       </c>
       <c r="F17" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H17" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I17" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J17" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="K17" t="s">
-        <v>558</v>
+        <v>305</v>
       </c>
       <c r="L17" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2788,37 +2526,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="E18">
-        <v>95000017</v>
+        <v>96700017</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I18" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J18" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="K18" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L18" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2826,37 +2564,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E19">
-        <v>95000018</v>
+        <v>96700018</v>
       </c>
       <c r="F19" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H19" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J19" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="K19" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L19" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2864,37 +2602,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="E20">
-        <v>95000019</v>
+        <v>96700019</v>
       </c>
       <c r="F20" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H20" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I20" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J20" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="K20" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L20" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2902,37 +2640,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="E21">
-        <v>95000020</v>
+        <v>96700020</v>
       </c>
       <c r="F21" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J21" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="K21" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L21" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2940,37 +2678,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="E22">
-        <v>95000021</v>
+        <v>96700021</v>
       </c>
       <c r="F22" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I22" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J22" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="K22" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L22" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2978,37 +2716,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E23">
-        <v>95000022</v>
+        <v>96700022</v>
       </c>
       <c r="F23" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H23" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I23" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="K23" t="s">
-        <v>558</v>
+        <v>305</v>
       </c>
       <c r="L23" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3016,37 +2754,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="E24">
-        <v>95000023</v>
+        <v>96700023</v>
       </c>
       <c r="F24" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J24" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="K24" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L24" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3054,37 +2792,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="E25">
-        <v>95000024</v>
+        <v>96700024</v>
       </c>
       <c r="F25" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I25" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J25" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="K25" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L25" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3092,37 +2830,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="E26">
-        <v>95000025</v>
+        <v>96700025</v>
       </c>
       <c r="F26" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I26" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J26" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="K26" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L26" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3130,37 +2868,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="E27">
-        <v>95000026</v>
+        <v>96700026</v>
       </c>
       <c r="F27" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I27" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J27" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="K27" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3168,37 +2906,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="E28">
-        <v>95000027</v>
+        <v>96700027</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H28" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J28" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="K28" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3206,37 +2944,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="E29">
-        <v>95000028</v>
+        <v>96700028</v>
       </c>
       <c r="F29" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H29" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="K29" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3244,37 +2982,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="E30">
-        <v>95000029</v>
+        <v>96700029</v>
       </c>
       <c r="F30" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H30" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I30" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="K30" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3282,37 +3020,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="E31">
-        <v>95000030</v>
+        <v>96700030</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H31" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="K31" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3320,37 +3058,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="E32">
-        <v>95000031</v>
+        <v>96700031</v>
       </c>
       <c r="F32" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H32" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I32" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J32" t="s">
-        <v>408</v>
+        <v>341</v>
       </c>
       <c r="K32" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3358,37 +3096,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="E33">
-        <v>95000032</v>
+        <v>96700032</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="I33" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="K33" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3396,37 +3134,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="E34">
-        <v>95000033</v>
+        <v>96700033</v>
       </c>
       <c r="F34" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H34" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I34" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3434,37 +3172,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="E35">
-        <v>95000034</v>
+        <v>96700034</v>
       </c>
       <c r="F35" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H35" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I35" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="K35" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3472,37 +3210,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="E36">
-        <v>95000035</v>
+        <v>96700035</v>
       </c>
       <c r="F36" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H36" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I36" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3510,37 +3248,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="E37">
-        <v>95000036</v>
+        <v>96700036</v>
       </c>
       <c r="F37" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H37" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I37" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3548,37 +3286,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E38">
-        <v>95000037</v>
+        <v>96700037</v>
       </c>
       <c r="F38" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I38" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="K38" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3586,37 +3324,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="E39">
-        <v>95000038</v>
+        <v>96700038</v>
       </c>
       <c r="F39" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H39" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I39" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J39" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="K39" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3624,37 +3362,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="E40">
-        <v>95000039</v>
+        <v>96700039</v>
       </c>
       <c r="F40" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H40" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I40" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="K40" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3662,37 +3400,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="E41">
-        <v>95000040</v>
+        <v>96700040</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H41" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I41" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J41" t="s">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3700,37 +3438,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="E42">
-        <v>95000041</v>
+        <v>96700041</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H42" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I42" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3738,37 +3476,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E43">
-        <v>95000042</v>
+        <v>96700042</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H43" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J43" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3776,37 +3514,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
         <v>187</v>
       </c>
-      <c r="D44" t="s">
-        <v>230</v>
-      </c>
       <c r="E44">
-        <v>95000043</v>
+        <v>96700043</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H44" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I44" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J44" t="s">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3814,37 +3552,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E45">
-        <v>95000044</v>
+        <v>96700044</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H45" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J45" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,37 +3590,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="E46">
-        <v>95000045</v>
+        <v>96700045</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H46" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L46" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3890,37 +3628,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="E47">
-        <v>95000046</v>
+        <v>96700046</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="K47" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3928,37 +3666,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="E48">
-        <v>95000047</v>
+        <v>96700047</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H48" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="K48" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3966,37 +3704,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="E49">
-        <v>95000048</v>
+        <v>96700048</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H49" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I49" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J49" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L49" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4004,37 +3742,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="E50">
-        <v>95000049</v>
+        <v>96700049</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I50" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="K50" t="s">
-        <v>559</v>
+        <v>307</v>
       </c>
       <c r="L50" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4042,37 +3780,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="E51">
-        <v>95000050</v>
+        <v>96700050</v>
       </c>
       <c r="F51" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H51" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I51" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J51" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="K51" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L51" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4080,37 +3818,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="E52">
-        <v>95000051</v>
+        <v>96700051</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H52" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J52" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L52" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4118,37 +3856,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="E53">
-        <v>95000052</v>
+        <v>96700052</v>
       </c>
       <c r="F53" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J53" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4156,37 +3894,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="E54">
-        <v>95000053</v>
+        <v>96700053</v>
       </c>
       <c r="F54" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J54" t="s">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="K54" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L54" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4194,37 +3932,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E55">
-        <v>95000054</v>
+        <v>96700054</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G55" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J55" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="K55" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="L55" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4232,37 +3970,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E56">
-        <v>95000055</v>
+        <v>96700055</v>
       </c>
       <c r="F56" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G56" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H56" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="I56" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J56" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="K56" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L56" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4270,37 +4008,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E57">
-        <v>95000056</v>
+        <v>96700056</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H57" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I57" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J57" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4308,37 +4046,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E58">
-        <v>95000057</v>
+        <v>96700057</v>
       </c>
       <c r="F58" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G58" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H58" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I58" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J58" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="K58" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L58" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4346,37 +4084,37 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E59">
-        <v>95000058</v>
+        <v>96700058</v>
       </c>
       <c r="F59" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H59" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J59" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L59" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4384,37 +4122,37 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E60">
-        <v>95000059</v>
+        <v>96700059</v>
       </c>
       <c r="F60" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G60" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H60" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I60" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J60" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="K60" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L60" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4422,37 +4160,37 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E61">
-        <v>95000060</v>
+        <v>96700060</v>
       </c>
       <c r="F61" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="G61" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H61" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I61" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J61" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="K61" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L61" t="s">
-        <v>562</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4460,37 +4198,37 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E62">
-        <v>95000061</v>
+        <v>96700061</v>
       </c>
       <c r="F62" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H62" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I62" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J62" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>559</v>
+        <v>307</v>
       </c>
       <c r="L62" t="s">
-        <v>563</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4498,37 +4236,37 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E63">
-        <v>95000062</v>
+        <v>96700062</v>
       </c>
       <c r="F63" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H63" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I63" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J63" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L63" t="s">
-        <v>564</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4536,37 +4274,37 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E64">
-        <v>95000063</v>
+        <v>96700063</v>
       </c>
       <c r="F64" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H64" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I64" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J64" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="K64" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L64" t="s">
-        <v>564</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -4574,37 +4312,37 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="E65">
-        <v>95000064</v>
+        <v>96700064</v>
       </c>
       <c r="F65" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H65" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J65" t="s">
-        <v>441</v>
+        <v>362</v>
       </c>
       <c r="K65" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L65" t="s">
-        <v>564</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -4612,37 +4350,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E66">
-        <v>95000065</v>
+        <v>96700065</v>
       </c>
       <c r="F66" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H66" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I66" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J66" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="K66" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L66" t="s">
-        <v>564</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4650,37 +4388,37 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="E67">
-        <v>95000066</v>
+        <v>96700066</v>
       </c>
       <c r="F67" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="G67" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H67" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I67" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J67" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
       <c r="K67" t="s">
-        <v>559</v>
+        <v>307</v>
       </c>
       <c r="L67" t="s">
-        <v>563</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -4688,37 +4426,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="E68">
-        <v>95000067</v>
+        <v>96700067</v>
       </c>
       <c r="F68" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H68" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I68" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J68" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="K68" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L68" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4726,37 +4464,37 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="E69">
-        <v>95000068</v>
+        <v>96700068</v>
       </c>
       <c r="F69" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H69" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I69" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J69" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="K69" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4764,37 +4502,37 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="E70">
-        <v>95000069</v>
+        <v>96700069</v>
       </c>
       <c r="F70" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G70" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H70" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I70" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J70" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="K70" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L70" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4802,37 +4540,37 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E71">
-        <v>95000070</v>
+        <v>96700070</v>
       </c>
       <c r="F71" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H71" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I71" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J71" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="K71" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L71" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4840,37 +4578,37 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="E72">
-        <v>95000071</v>
+        <v>96700071</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H72" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I72" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J72" t="s">
-        <v>448</v>
+        <v>368</v>
       </c>
       <c r="K72" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L72" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4878,37 +4616,37 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="E73">
-        <v>95000072</v>
+        <v>96700072</v>
       </c>
       <c r="F73" t="s">
+        <v>296</v>
+      </c>
+      <c r="G73" t="s">
+        <v>298</v>
+      </c>
+      <c r="H73" t="s">
+        <v>302</v>
+      </c>
+      <c r="I73" t="s">
+        <v>303</v>
+      </c>
+      <c r="J73" t="s">
         <v>369</v>
       </c>
-      <c r="G73" t="s">
-        <v>371</v>
-      </c>
-      <c r="H73" t="s">
-        <v>373</v>
-      </c>
-      <c r="I73" t="s">
-        <v>376</v>
-      </c>
-      <c r="J73" t="s">
-        <v>449</v>
-      </c>
       <c r="K73" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L73" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4916,37 +4654,37 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E74">
-        <v>95000073</v>
+        <v>96700073</v>
       </c>
       <c r="F74" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H74" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I74" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J74" t="s">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="K74" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L74" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4954,37 +4692,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="E75">
-        <v>95000074</v>
+        <v>96700074</v>
       </c>
       <c r="F75" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G75" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" t="s">
+        <v>299</v>
+      </c>
+      <c r="I75" t="s">
+        <v>303</v>
+      </c>
+      <c r="J75" t="s">
         <v>371</v>
       </c>
-      <c r="H75" t="s">
-        <v>373</v>
-      </c>
-      <c r="I75" t="s">
-        <v>376</v>
-      </c>
-      <c r="J75" t="s">
-        <v>451</v>
-      </c>
       <c r="K75" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L75" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4992,37 +4730,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E76">
-        <v>95000075</v>
+        <v>96700075</v>
       </c>
       <c r="F76" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H76" t="s">
+        <v>301</v>
+      </c>
+      <c r="I76" t="s">
+        <v>303</v>
+      </c>
+      <c r="J76" t="s">
         <v>372</v>
       </c>
-      <c r="I76" t="s">
-        <v>376</v>
-      </c>
-      <c r="J76" t="s">
-        <v>452</v>
-      </c>
       <c r="K76" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L76" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5030,37 +4768,37 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="E77">
-        <v>95000076</v>
+        <v>96700076</v>
       </c>
       <c r="F77" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G77" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H77" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I77" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J77" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
       <c r="K77" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L77" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5068,37 +4806,37 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="E78">
-        <v>95000077</v>
+        <v>96700077</v>
       </c>
       <c r="F78" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G78" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H78" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I78" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J78" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K78" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5106,37 +4844,37 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="E79">
-        <v>95000078</v>
+        <v>96700078</v>
       </c>
       <c r="F79" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G79" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H79" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I79" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J79" t="s">
-        <v>455</v>
+        <v>374</v>
       </c>
       <c r="K79" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L79" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5144,37 +4882,37 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="E80">
-        <v>95000079</v>
+        <v>96700079</v>
       </c>
       <c r="F80" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G80" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H80" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I80" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J80" t="s">
-        <v>456</v>
+        <v>375</v>
       </c>
       <c r="K80" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L80" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5182,37 +4920,37 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="E81">
-        <v>95000080</v>
+        <v>96700080</v>
       </c>
       <c r="F81" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H81" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I81" t="s">
+        <v>303</v>
+      </c>
+      <c r="J81" t="s">
         <v>376</v>
       </c>
-      <c r="J81" t="s">
-        <v>457</v>
-      </c>
       <c r="K81" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L81" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5220,37 +4958,37 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="E82">
-        <v>95000081</v>
+        <v>96700081</v>
       </c>
       <c r="F82" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G82" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H82" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I82" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J82" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K82" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L82" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5258,37 +4996,37 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="E83">
-        <v>95000082</v>
+        <v>96700082</v>
       </c>
       <c r="F83" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G83" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H83" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I83" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J83" t="s">
-        <v>459</v>
+        <v>377</v>
       </c>
       <c r="K83" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L83" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5296,37 +5034,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="E84">
-        <v>95000083</v>
+        <v>96700083</v>
       </c>
       <c r="F84" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H84" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I84" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J84" t="s">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="K84" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L84" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5334,37 +5072,37 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="E85">
-        <v>95000084</v>
+        <v>96700084</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G85" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H85" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I85" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J85" t="s">
-        <v>461</v>
+        <v>379</v>
       </c>
       <c r="K85" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L85" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5372,37 +5110,37 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E86">
-        <v>95000085</v>
+        <v>96700085</v>
       </c>
       <c r="F86" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G86" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H86" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I86" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J86" t="s">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="K86" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L86" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5410,37 +5148,37 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="E87">
-        <v>95000086</v>
+        <v>96700086</v>
       </c>
       <c r="F87" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H87" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I87" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J87" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="K87" t="s">
-        <v>559</v>
+        <v>306</v>
       </c>
       <c r="L87" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5448,37 +5186,37 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="E88">
-        <v>95000087</v>
+        <v>96700087</v>
       </c>
       <c r="F88" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G88" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H88" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I88" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J88" t="s">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="K88" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L88" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5486,37 +5224,37 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="E89">
-        <v>95000088</v>
+        <v>96700088</v>
       </c>
       <c r="F89" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G89" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H89" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I89" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J89" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="K89" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L89" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5524,37 +5262,37 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="E90">
-        <v>95000089</v>
+        <v>96700089</v>
       </c>
       <c r="F90" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G90" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H90" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I90" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J90" t="s">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="K90" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L90" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5562,37 +5300,37 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="E91">
-        <v>95000090</v>
+        <v>96700090</v>
       </c>
       <c r="F91" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H91" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I91" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J91" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="K91" t="s">
-        <v>558</v>
+        <v>305</v>
       </c>
       <c r="L91" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5600,37 +5338,37 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="E92">
-        <v>95000091</v>
+        <v>96700091</v>
       </c>
       <c r="F92" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G92" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H92" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I92" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J92" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="K92" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L92" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5638,37 +5376,37 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="E93">
-        <v>95000092</v>
+        <v>96700092</v>
       </c>
       <c r="F93" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G93" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H93" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I93" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J93" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K93" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L93" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5676,37 +5414,37 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="E94">
-        <v>95000093</v>
+        <v>96700093</v>
       </c>
       <c r="F94" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I94" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J94" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
       <c r="K94" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L94" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -5714,37 +5452,37 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="E95">
-        <v>95000094</v>
+        <v>96700094</v>
       </c>
       <c r="F95" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H95" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I95" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J95" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="K95" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L95" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -5752,37 +5490,37 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="E96">
-        <v>95000095</v>
+        <v>96700095</v>
       </c>
       <c r="F96" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H96" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I96" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J96" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="K96" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L96" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -5790,37 +5528,37 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="E97">
-        <v>95000096</v>
+        <v>96700096</v>
       </c>
       <c r="F97" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G97" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H97" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I97" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="J97" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="K97" t="s">
-        <v>558</v>
+        <v>305</v>
       </c>
       <c r="L97" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5828,37 +5566,37 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="E98">
-        <v>95000097</v>
+        <v>96700097</v>
       </c>
       <c r="F98" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G98" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H98" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I98" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J98" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="K98" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L98" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5866,37 +5604,37 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E99">
-        <v>95000098</v>
+        <v>96700098</v>
       </c>
       <c r="F99" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H99" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I99" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J99" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="K99" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L99" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5904,37 +5642,37 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E100">
-        <v>95000099</v>
+        <v>96700099</v>
       </c>
       <c r="F100" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I100" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J100" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="K100" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L100" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5942,37 +5680,37 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="E101">
-        <v>95000100</v>
+        <v>96700100</v>
       </c>
       <c r="F101" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G101" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H101" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I101" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J101" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="K101" t="s">
-        <v>559</v>
+        <v>306</v>
       </c>
       <c r="L101" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -5980,37 +5718,37 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="E102">
-        <v>95000101</v>
+        <v>96700101</v>
       </c>
       <c r="F102" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G102" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H102" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I102" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J102" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="K102" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="L102" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6018,37 +5756,37 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E103">
-        <v>95000102</v>
+        <v>96700102</v>
       </c>
       <c r="F103" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G103" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H103" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I103" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J103" t="s">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="K103" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L103" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6056,37 +5794,37 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E104">
-        <v>95000103</v>
+        <v>96700103</v>
       </c>
       <c r="F104" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G104" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H104" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I104" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J104" t="s">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="K104" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6094,37 +5832,37 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="E105">
-        <v>95000104</v>
+        <v>96700104</v>
       </c>
       <c r="F105" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G105" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H105" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="I105" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J105" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="K105" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L105" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6132,37 +5870,37 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="E106">
-        <v>95000105</v>
+        <v>96700105</v>
       </c>
       <c r="F106" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G106" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H106" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I106" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J106" t="s">
-        <v>482</v>
+        <v>396</v>
       </c>
       <c r="K106" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L106" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6170,37 +5908,37 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="E107">
-        <v>95000106</v>
+        <v>96700106</v>
       </c>
       <c r="F107" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G107" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H107" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I107" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J107" t="s">
-        <v>483</v>
+        <v>397</v>
       </c>
       <c r="K107" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L107" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6208,37 +5946,37 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E108">
-        <v>95000107</v>
+        <v>96700107</v>
       </c>
       <c r="F108" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G108" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H108" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="I108" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J108" t="s">
-        <v>484</v>
+        <v>398</v>
       </c>
       <c r="K108" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L108" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6246,37 +5984,37 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="E109">
-        <v>95000108</v>
+        <v>96700108</v>
       </c>
       <c r="F109" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G109" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H109" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I109" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J109" t="s">
-        <v>485</v>
+        <v>399</v>
       </c>
       <c r="K109" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L109" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6284,37 +6022,37 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110">
+        <v>96700109</v>
+      </c>
+      <c r="F110" t="s">
         <v>296</v>
       </c>
-      <c r="E110">
-        <v>95000109</v>
-      </c>
-      <c r="F110" t="s">
-        <v>369</v>
-      </c>
       <c r="G110" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H110" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I110" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J110" t="s">
-        <v>486</v>
+        <v>400</v>
       </c>
       <c r="K110" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L110" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6322,37 +6060,37 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="E111">
-        <v>95000110</v>
+        <v>96700110</v>
       </c>
       <c r="F111" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G111" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H111" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I111" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J111" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="K111" t="s">
-        <v>559</v>
+        <v>307</v>
       </c>
       <c r="L111" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6360,37 +6098,37 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D112" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="E112">
-        <v>95000111</v>
+        <v>96700111</v>
       </c>
       <c r="F112" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H112" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I112" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J112" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="K112" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L112" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6398,37 +6136,37 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D113" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="E113">
-        <v>95000112</v>
+        <v>96700112</v>
       </c>
       <c r="F113" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G113" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H113" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I113" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J113" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="K113" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L113" t="s">
-        <v>563</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6436,37 +6174,37 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114">
+        <v>96700113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>296</v>
+      </c>
+      <c r="G114" t="s">
+        <v>298</v>
+      </c>
+      <c r="H114" t="s">
         <v>300</v>
       </c>
-      <c r="E114">
-        <v>95000113</v>
-      </c>
-      <c r="F114" t="s">
-        <v>369</v>
-      </c>
-      <c r="G114" t="s">
-        <v>371</v>
-      </c>
-      <c r="H114" t="s">
-        <v>373</v>
-      </c>
       <c r="I114" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J114" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="K114" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L114" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6474,37 +6212,37 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="E115">
-        <v>95000114</v>
+        <v>96700114</v>
       </c>
       <c r="F115" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G115" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H115" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="I115" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J115" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="K115" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
       <c r="L115" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6512,37 +6250,37 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D116" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="E116">
-        <v>95000115</v>
+        <v>96700115</v>
       </c>
       <c r="F116" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G116" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H116" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I116" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J116" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="K116" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L116" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6550,37 +6288,37 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="E117">
-        <v>95000116</v>
+        <v>96700116</v>
       </c>
       <c r="F117" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G117" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H117" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I117" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J117" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="K117" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="L117" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6588,37 +6326,37 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118">
+        <v>96700117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" t="s">
+        <v>298</v>
+      </c>
+      <c r="H118" t="s">
+        <v>301</v>
+      </c>
+      <c r="I118" t="s">
         <v>304</v>
       </c>
-      <c r="E118">
-        <v>95000117</v>
-      </c>
-      <c r="F118" t="s">
-        <v>369</v>
-      </c>
-      <c r="G118" t="s">
-        <v>371</v>
-      </c>
-      <c r="H118" t="s">
-        <v>374</v>
-      </c>
-      <c r="I118" t="s">
-        <v>377</v>
-      </c>
       <c r="J118" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="K118" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L118" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -6626,37 +6364,37 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="E119">
-        <v>95000118</v>
+        <v>96700118</v>
       </c>
       <c r="F119" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G119" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H119" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I119" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J119" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="K119" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L119" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6664,37 +6402,37 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D120" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120">
+        <v>96700119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>296</v>
+      </c>
+      <c r="G120" t="s">
+        <v>298</v>
+      </c>
+      <c r="H120" t="s">
+        <v>300</v>
+      </c>
+      <c r="I120" t="s">
+        <v>304</v>
+      </c>
+      <c r="J120" t="s">
+        <v>409</v>
+      </c>
+      <c r="K120" t="s">
         <v>306</v>
       </c>
-      <c r="E120">
-        <v>95000119</v>
-      </c>
-      <c r="F120" t="s">
-        <v>369</v>
-      </c>
-      <c r="G120" t="s">
-        <v>371</v>
-      </c>
-      <c r="H120" t="s">
-        <v>374</v>
-      </c>
-      <c r="I120" t="s">
-        <v>377</v>
-      </c>
-      <c r="J120" t="s">
-        <v>496</v>
-      </c>
-      <c r="K120" t="s">
-        <v>558</v>
-      </c>
       <c r="L120" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6702,37 +6440,37 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="E121">
-        <v>95000120</v>
+        <v>96700120</v>
       </c>
       <c r="F121" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="G121" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H121" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I121" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="J121" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="K121" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L121" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6740,37 +6478,37 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="E122">
-        <v>95000121</v>
+        <v>96700121</v>
       </c>
       <c r="F122" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="G122" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H122" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I122" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J122" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="K122" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L122" t="s">
-        <v>565</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -6778,37 +6516,37 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="E123">
-        <v>95000122</v>
+        <v>96700122</v>
       </c>
       <c r="F123" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="G123" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H123" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I123" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J123" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="K123" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L123" t="s">
-        <v>565</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -6816,37 +6554,37 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124">
+        <v>96700123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>296</v>
+      </c>
+      <c r="G124" t="s">
+        <v>298</v>
+      </c>
+      <c r="H124" t="s">
+        <v>301</v>
+      </c>
+      <c r="I124" t="s">
+        <v>304</v>
+      </c>
+      <c r="J124" t="s">
+        <v>412</v>
+      </c>
+      <c r="K124" t="s">
+        <v>307</v>
+      </c>
+      <c r="L124" t="s">
         <v>310</v>
-      </c>
-      <c r="E124">
-        <v>95000123</v>
-      </c>
-      <c r="F124" t="s">
-        <v>370</v>
-      </c>
-      <c r="G124" t="s">
-        <v>371</v>
-      </c>
-      <c r="H124" t="s">
-        <v>374</v>
-      </c>
-      <c r="I124" t="s">
-        <v>376</v>
-      </c>
-      <c r="J124" t="s">
-        <v>500</v>
-      </c>
-      <c r="K124" t="s">
-        <v>560</v>
-      </c>
-      <c r="L124" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -6854,37 +6592,37 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125">
+        <v>96700124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G125" t="s">
+        <v>298</v>
+      </c>
+      <c r="H125" t="s">
+        <v>301</v>
+      </c>
+      <c r="I125" t="s">
+        <v>304</v>
+      </c>
+      <c r="J125" t="s">
+        <v>413</v>
+      </c>
+      <c r="K125" t="s">
+        <v>307</v>
+      </c>
+      <c r="L125" t="s">
         <v>311</v>
-      </c>
-      <c r="E125">
-        <v>95000124</v>
-      </c>
-      <c r="F125" t="s">
-        <v>370</v>
-      </c>
-      <c r="G125" t="s">
-        <v>371</v>
-      </c>
-      <c r="H125" t="s">
-        <v>372</v>
-      </c>
-      <c r="I125" t="s">
-        <v>376</v>
-      </c>
-      <c r="J125" t="s">
-        <v>501</v>
-      </c>
-      <c r="K125" t="s">
-        <v>559</v>
-      </c>
-      <c r="L125" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -6892,37 +6630,37 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E126">
-        <v>95000125</v>
+        <v>96700125</v>
       </c>
       <c r="F126" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="G126" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H126" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I126" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J126" t="s">
-        <v>502</v>
+        <v>414</v>
       </c>
       <c r="K126" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L126" t="s">
-        <v>566</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6930,37 +6668,37 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="E127">
-        <v>95000126</v>
+        <v>96700126</v>
       </c>
       <c r="F127" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="G127" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H127" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I127" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="J127" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="K127" t="s">
-        <v>559</v>
+        <v>306</v>
       </c>
       <c r="L127" t="s">
-        <v>566</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -6968,37 +6706,37 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="E128">
-        <v>95000127</v>
+        <v>96700127</v>
       </c>
       <c r="F128" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H128" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I128" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J128" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="K128" t="s">
-        <v>559</v>
+        <v>307</v>
       </c>
       <c r="L128" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7006,37 +6744,37 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E129">
-        <v>95000128</v>
+        <v>96700128</v>
       </c>
       <c r="F129" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G129" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H129" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I129" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J129" t="s">
-        <v>505</v>
+        <v>416</v>
       </c>
       <c r="K129" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L129" t="s">
-        <v>566</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7044,37 +6782,37 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="E130">
-        <v>95000129</v>
+        <v>96700129</v>
       </c>
       <c r="F130" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G130" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H130" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I130" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J130" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
       <c r="K130" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L130" t="s">
-        <v>566</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -7082,37 +6820,37 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="E131">
-        <v>95000130</v>
+        <v>96700130</v>
       </c>
       <c r="F131" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G131" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H131" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I131" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J131" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="K131" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L131" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -7120,37 +6858,37 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D132" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="E132">
-        <v>95000131</v>
+        <v>96700131</v>
       </c>
       <c r="F132" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G132" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H132" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I132" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J132" t="s">
-        <v>508</v>
+        <v>418</v>
       </c>
       <c r="K132" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L132" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7158,37 +6896,37 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D133" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="E133">
-        <v>95000132</v>
+        <v>96700132</v>
       </c>
       <c r="F133" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G133" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H133" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I133" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J133" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="K133" t="s">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="L133" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -7196,37 +6934,37 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="E134">
-        <v>95000133</v>
+        <v>96700133</v>
       </c>
       <c r="F134" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G134" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H134" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="I134" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J134" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K134" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="L134" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7234,37 +6972,37 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="E135">
-        <v>95000134</v>
+        <v>96700134</v>
       </c>
       <c r="F135" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G135" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H135" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I135" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J135" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="K135" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L135" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7272,37 +7010,37 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D136" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="E136">
-        <v>95000135</v>
+        <v>96700135</v>
       </c>
       <c r="F136" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G136" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H136" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I136" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J136" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="K136" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L136" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7310,37 +7048,37 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="E137">
-        <v>95000136</v>
+        <v>96700136</v>
       </c>
       <c r="F137" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G137" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H137" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I137" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J137" t="s">
-        <v>513</v>
+        <v>422</v>
       </c>
       <c r="K137" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L137" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -7348,37 +7086,37 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="E138">
-        <v>95000137</v>
+        <v>96700137</v>
       </c>
       <c r="F138" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G138" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H138" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="I138" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J138" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="K138" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
       <c r="L138" t="s">
-        <v>566</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -7386,37 +7124,37 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E139">
-        <v>95000138</v>
+        <v>96700138</v>
       </c>
       <c r="F139" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G139" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H139" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I139" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J139" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="K139" t="s">
-        <v>561</v>
+        <v>307</v>
       </c>
       <c r="L139" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -7424,37 +7162,37 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="E140">
-        <v>95000139</v>
+        <v>96700139</v>
       </c>
       <c r="F140" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G140" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H140" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="I140" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J140" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="K140" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L140" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -7462,37 +7200,37 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D141" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="E141">
-        <v>95000140</v>
+        <v>96700140</v>
       </c>
       <c r="F141" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G141" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H141" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="I141" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J141" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="K141" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="L141" t="s">
-        <v>566</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7500,37 +7238,37 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D142" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="E142">
-        <v>95000141</v>
+        <v>96700141</v>
       </c>
       <c r="F142" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G142" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H142" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I142" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J142" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="K142" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L142" t="s">
-        <v>566</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7538,37 +7276,37 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="E143">
-        <v>95000142</v>
+        <v>96700142</v>
       </c>
       <c r="F143" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G143" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H143" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="I143" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J143" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="K143" t="s">
-        <v>558</v>
+        <v>306</v>
       </c>
       <c r="L143" t="s">
-        <v>566</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7576,37 +7314,37 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="E144">
-        <v>95000143</v>
+        <v>96700143</v>
       </c>
       <c r="F144" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G144" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H144" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I144" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J144" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="K144" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L144" t="s">
-        <v>566</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7614,37 +7352,37 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D145" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="E145">
-        <v>95000144</v>
+        <v>96700144</v>
       </c>
       <c r="F145" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G145" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H145" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="I145" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J145" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="K145" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="L145" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -7652,37 +7390,37 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="E146">
-        <v>95000145</v>
+        <v>96700145</v>
       </c>
       <c r="F146" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G146" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H146" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="I146" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J146" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="K146" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L146" t="s">
-        <v>565</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -7690,37 +7428,37 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="E147">
-        <v>95000146</v>
+        <v>96700146</v>
       </c>
       <c r="F147" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G147" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H147" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I147" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J147" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="K147" t="s">
-        <v>560</v>
+        <v>307</v>
       </c>
       <c r="L147" t="s">
-        <v>566</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -7728,37 +7466,37 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="E148">
-        <v>95000147</v>
+        <v>96700147</v>
       </c>
       <c r="F148" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G148" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H148" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I148" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J148" t="s">
-        <v>524</v>
+        <v>428</v>
       </c>
       <c r="K148" t="s">
-        <v>560</v>
+        <v>305</v>
       </c>
       <c r="L148" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -7766,37 +7504,37 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="E149">
-        <v>95000148</v>
+        <v>96700148</v>
       </c>
       <c r="F149" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G149" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H149" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="I149" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J149" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="K149" t="s">
-        <v>559</v>
+        <v>305</v>
       </c>
       <c r="L149" t="s">
-        <v>565</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -7804,37 +7542,37 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="E150">
-        <v>95000149</v>
+        <v>96700149</v>
       </c>
       <c r="F150" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G150" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H150" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I150" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J150" t="s">
-        <v>526</v>
+        <v>429</v>
       </c>
       <c r="K150" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="L150" t="s">
-        <v>566</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -7842,1177 +7580,37 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D151" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="E151">
-        <v>95000150</v>
+        <v>96700150</v>
       </c>
       <c r="F151" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="G151" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="H151" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="I151" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="J151" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
       <c r="K151" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
       <c r="L151" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" t="s">
-        <v>187</v>
-      </c>
-      <c r="D152" t="s">
-        <v>338</v>
-      </c>
-      <c r="E152">
-        <v>95000151</v>
-      </c>
-      <c r="F152" t="s">
-        <v>370</v>
-      </c>
-      <c r="G152" t="s">
-        <v>371</v>
-      </c>
-      <c r="H152" t="s">
-        <v>375</v>
-      </c>
-      <c r="I152" t="s">
-        <v>377</v>
-      </c>
-      <c r="J152" t="s">
-        <v>528</v>
-      </c>
-      <c r="K152" t="s">
-        <v>558</v>
-      </c>
-      <c r="L152" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" t="s">
-        <v>187</v>
-      </c>
-      <c r="D153" t="s">
-        <v>339</v>
-      </c>
-      <c r="E153">
-        <v>95000152</v>
-      </c>
-      <c r="F153" t="s">
-        <v>370</v>
-      </c>
-      <c r="G153" t="s">
-        <v>371</v>
-      </c>
-      <c r="H153" t="s">
-        <v>375</v>
-      </c>
-      <c r="I153" t="s">
-        <v>377</v>
-      </c>
-      <c r="J153" t="s">
-        <v>529</v>
-      </c>
-      <c r="K153" t="s">
-        <v>559</v>
-      </c>
-      <c r="L153" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>159</v>
-      </c>
-      <c r="C154" t="s">
-        <v>187</v>
-      </c>
-      <c r="D154" t="s">
-        <v>340</v>
-      </c>
-      <c r="E154">
-        <v>95000153</v>
-      </c>
-      <c r="F154" t="s">
-        <v>370</v>
-      </c>
-      <c r="G154" t="s">
-        <v>371</v>
-      </c>
-      <c r="H154" t="s">
-        <v>372</v>
-      </c>
-      <c r="I154" t="s">
-        <v>377</v>
-      </c>
-      <c r="J154" t="s">
-        <v>530</v>
-      </c>
-      <c r="K154" t="s">
-        <v>561</v>
-      </c>
-      <c r="L154" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>160</v>
-      </c>
-      <c r="C155" t="s">
-        <v>187</v>
-      </c>
-      <c r="D155" t="s">
-        <v>341</v>
-      </c>
-      <c r="E155">
-        <v>95000154</v>
-      </c>
-      <c r="F155" t="s">
-        <v>370</v>
-      </c>
-      <c r="G155" t="s">
-        <v>371</v>
-      </c>
-      <c r="H155" t="s">
-        <v>373</v>
-      </c>
-      <c r="I155" t="s">
-        <v>377</v>
-      </c>
-      <c r="J155" t="s">
-        <v>531</v>
-      </c>
-      <c r="K155" t="s">
-        <v>558</v>
-      </c>
-      <c r="L155" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>161</v>
-      </c>
-      <c r="C156" t="s">
-        <v>187</v>
-      </c>
-      <c r="D156" t="s">
-        <v>342</v>
-      </c>
-      <c r="E156">
-        <v>95000155</v>
-      </c>
-      <c r="F156" t="s">
-        <v>370</v>
-      </c>
-      <c r="G156" t="s">
-        <v>371</v>
-      </c>
-      <c r="H156" t="s">
-        <v>372</v>
-      </c>
-      <c r="I156" t="s">
-        <v>377</v>
-      </c>
-      <c r="J156" t="s">
-        <v>532</v>
-      </c>
-      <c r="K156" t="s">
-        <v>560</v>
-      </c>
-      <c r="L156" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157" t="s">
-        <v>187</v>
-      </c>
-      <c r="D157" t="s">
-        <v>343</v>
-      </c>
-      <c r="E157">
-        <v>95000156</v>
-      </c>
-      <c r="F157" t="s">
-        <v>370</v>
-      </c>
-      <c r="G157" t="s">
-        <v>371</v>
-      </c>
-      <c r="H157" t="s">
-        <v>374</v>
-      </c>
-      <c r="I157" t="s">
-        <v>377</v>
-      </c>
-      <c r="J157" t="s">
-        <v>533</v>
-      </c>
-      <c r="K157" t="s">
-        <v>558</v>
-      </c>
-      <c r="L157" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158" t="s">
-        <v>187</v>
-      </c>
-      <c r="D158" t="s">
-        <v>344</v>
-      </c>
-      <c r="E158">
-        <v>95000157</v>
-      </c>
-      <c r="F158" t="s">
-        <v>370</v>
-      </c>
-      <c r="G158" t="s">
-        <v>371</v>
-      </c>
-      <c r="H158" t="s">
-        <v>375</v>
-      </c>
-      <c r="I158" t="s">
-        <v>377</v>
-      </c>
-      <c r="J158" t="s">
-        <v>534</v>
-      </c>
-      <c r="K158" t="s">
-        <v>559</v>
-      </c>
-      <c r="L158" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>164</v>
-      </c>
-      <c r="C159" t="s">
-        <v>187</v>
-      </c>
-      <c r="D159" t="s">
-        <v>345</v>
-      </c>
-      <c r="E159">
-        <v>95000158</v>
-      </c>
-      <c r="F159" t="s">
-        <v>370</v>
-      </c>
-      <c r="G159" t="s">
-        <v>371</v>
-      </c>
-      <c r="H159" t="s">
-        <v>372</v>
-      </c>
-      <c r="I159" t="s">
-        <v>377</v>
-      </c>
-      <c r="J159" t="s">
-        <v>535</v>
-      </c>
-      <c r="K159" t="s">
-        <v>559</v>
-      </c>
-      <c r="L159" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C160" t="s">
-        <v>187</v>
-      </c>
-      <c r="D160" t="s">
-        <v>346</v>
-      </c>
-      <c r="E160">
-        <v>95000159</v>
-      </c>
-      <c r="F160" t="s">
-        <v>370</v>
-      </c>
-      <c r="G160" t="s">
-        <v>371</v>
-      </c>
-      <c r="H160" t="s">
-        <v>372</v>
-      </c>
-      <c r="I160" t="s">
-        <v>377</v>
-      </c>
-      <c r="J160" t="s">
-        <v>536</v>
-      </c>
-      <c r="K160" t="s">
-        <v>560</v>
-      </c>
-      <c r="L160" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C161" t="s">
-        <v>187</v>
-      </c>
-      <c r="D161" t="s">
-        <v>347</v>
-      </c>
-      <c r="E161">
-        <v>95000160</v>
-      </c>
-      <c r="F161" t="s">
-        <v>370</v>
-      </c>
-      <c r="G161" t="s">
-        <v>371</v>
-      </c>
-      <c r="H161" t="s">
-        <v>374</v>
-      </c>
-      <c r="I161" t="s">
-        <v>377</v>
-      </c>
-      <c r="J161" t="s">
-        <v>537</v>
-      </c>
-      <c r="K161" t="s">
-        <v>558</v>
-      </c>
-      <c r="L161" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>167</v>
-      </c>
-      <c r="C162" t="s">
-        <v>187</v>
-      </c>
-      <c r="D162" t="s">
-        <v>348</v>
-      </c>
-      <c r="E162">
-        <v>95000161</v>
-      </c>
-      <c r="F162" t="s">
-        <v>370</v>
-      </c>
-      <c r="G162" t="s">
-        <v>371</v>
-      </c>
-      <c r="H162" t="s">
-        <v>373</v>
-      </c>
-      <c r="I162" t="s">
-        <v>377</v>
-      </c>
-      <c r="J162" t="s">
-        <v>538</v>
-      </c>
-      <c r="K162" t="s">
-        <v>559</v>
-      </c>
-      <c r="L162" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>168</v>
-      </c>
-      <c r="C163" t="s">
-        <v>187</v>
-      </c>
-      <c r="D163" t="s">
-        <v>349</v>
-      </c>
-      <c r="E163">
-        <v>95000162</v>
-      </c>
-      <c r="F163" t="s">
-        <v>370</v>
-      </c>
-      <c r="G163" t="s">
-        <v>371</v>
-      </c>
-      <c r="H163" t="s">
-        <v>375</v>
-      </c>
-      <c r="I163" t="s">
-        <v>377</v>
-      </c>
-      <c r="J163" t="s">
-        <v>539</v>
-      </c>
-      <c r="K163" t="s">
-        <v>558</v>
-      </c>
-      <c r="L163" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>169</v>
-      </c>
-      <c r="C164" t="s">
-        <v>187</v>
-      </c>
-      <c r="D164" t="s">
-        <v>350</v>
-      </c>
-      <c r="E164">
-        <v>95000163</v>
-      </c>
-      <c r="F164" t="s">
-        <v>370</v>
-      </c>
-      <c r="G164" t="s">
-        <v>371</v>
-      </c>
-      <c r="H164" t="s">
-        <v>374</v>
-      </c>
-      <c r="I164" t="s">
-        <v>377</v>
-      </c>
-      <c r="J164" t="s">
-        <v>540</v>
-      </c>
-      <c r="K164" t="s">
-        <v>560</v>
-      </c>
-      <c r="L164" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>170</v>
-      </c>
-      <c r="C165" t="s">
-        <v>187</v>
-      </c>
-      <c r="D165" t="s">
-        <v>351</v>
-      </c>
-      <c r="E165">
-        <v>95000164</v>
-      </c>
-      <c r="F165" t="s">
-        <v>370</v>
-      </c>
-      <c r="G165" t="s">
-        <v>371</v>
-      </c>
-      <c r="H165" t="s">
-        <v>374</v>
-      </c>
-      <c r="I165" t="s">
-        <v>377</v>
-      </c>
-      <c r="J165" t="s">
-        <v>541</v>
-      </c>
-      <c r="K165" t="s">
-        <v>561</v>
-      </c>
-      <c r="L165" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>171</v>
-      </c>
-      <c r="C166" t="s">
-        <v>187</v>
-      </c>
-      <c r="D166" t="s">
-        <v>352</v>
-      </c>
-      <c r="E166">
-        <v>95000165</v>
-      </c>
-      <c r="F166" t="s">
-        <v>370</v>
-      </c>
-      <c r="G166" t="s">
-        <v>371</v>
-      </c>
-      <c r="H166" t="s">
-        <v>374</v>
-      </c>
-      <c r="I166" t="s">
-        <v>377</v>
-      </c>
-      <c r="J166" t="s">
-        <v>542</v>
-      </c>
-      <c r="K166" t="s">
-        <v>561</v>
-      </c>
-      <c r="L166" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>172</v>
-      </c>
-      <c r="C167" t="s">
-        <v>187</v>
-      </c>
-      <c r="D167" t="s">
-        <v>353</v>
-      </c>
-      <c r="E167">
-        <v>95000166</v>
-      </c>
-      <c r="F167" t="s">
-        <v>370</v>
-      </c>
-      <c r="G167" t="s">
-        <v>371</v>
-      </c>
-      <c r="H167" t="s">
-        <v>375</v>
-      </c>
-      <c r="I167" t="s">
-        <v>377</v>
-      </c>
-      <c r="J167" t="s">
-        <v>543</v>
-      </c>
-      <c r="K167" t="s">
-        <v>559</v>
-      </c>
-      <c r="L167" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>173</v>
-      </c>
-      <c r="C168" t="s">
-        <v>187</v>
-      </c>
-      <c r="D168" t="s">
-        <v>354</v>
-      </c>
-      <c r="E168">
-        <v>95000167</v>
-      </c>
-      <c r="F168" t="s">
-        <v>370</v>
-      </c>
-      <c r="G168" t="s">
-        <v>371</v>
-      </c>
-      <c r="H168" t="s">
-        <v>375</v>
-      </c>
-      <c r="I168" t="s">
-        <v>377</v>
-      </c>
-      <c r="J168" t="s">
-        <v>544</v>
-      </c>
-      <c r="K168" t="s">
-        <v>558</v>
-      </c>
-      <c r="L168" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C169" t="s">
-        <v>187</v>
-      </c>
-      <c r="D169" t="s">
-        <v>355</v>
-      </c>
-      <c r="E169">
-        <v>95000168</v>
-      </c>
-      <c r="F169" t="s">
-        <v>370</v>
-      </c>
-      <c r="G169" t="s">
-        <v>371</v>
-      </c>
-      <c r="H169" t="s">
-        <v>375</v>
-      </c>
-      <c r="I169" t="s">
-        <v>377</v>
-      </c>
-      <c r="J169" t="s">
-        <v>545</v>
-      </c>
-      <c r="K169" t="s">
-        <v>558</v>
-      </c>
-      <c r="L169" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>175</v>
-      </c>
-      <c r="C170" t="s">
-        <v>187</v>
-      </c>
-      <c r="D170" t="s">
-        <v>356</v>
-      </c>
-      <c r="E170">
-        <v>95000169</v>
-      </c>
-      <c r="F170" t="s">
-        <v>370</v>
-      </c>
-      <c r="G170" t="s">
-        <v>371</v>
-      </c>
-      <c r="H170" t="s">
-        <v>373</v>
-      </c>
-      <c r="I170" t="s">
-        <v>377</v>
-      </c>
-      <c r="J170" t="s">
-        <v>546</v>
-      </c>
-      <c r="K170" t="s">
-        <v>561</v>
-      </c>
-      <c r="L170" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" t="s">
-        <v>187</v>
-      </c>
-      <c r="D171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E171">
-        <v>95000170</v>
-      </c>
-      <c r="F171" t="s">
-        <v>370</v>
-      </c>
-      <c r="G171" t="s">
-        <v>371</v>
-      </c>
-      <c r="H171" t="s">
-        <v>374</v>
-      </c>
-      <c r="I171" t="s">
-        <v>377</v>
-      </c>
-      <c r="J171" t="s">
-        <v>547</v>
-      </c>
-      <c r="K171" t="s">
-        <v>559</v>
-      </c>
-      <c r="L171" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>177</v>
-      </c>
-      <c r="C172" t="s">
-        <v>187</v>
-      </c>
-      <c r="D172" t="s">
-        <v>358</v>
-      </c>
-      <c r="E172">
-        <v>95000171</v>
-      </c>
-      <c r="F172" t="s">
-        <v>370</v>
-      </c>
-      <c r="G172" t="s">
-        <v>371</v>
-      </c>
-      <c r="H172" t="s">
-        <v>373</v>
-      </c>
-      <c r="I172" t="s">
-        <v>377</v>
-      </c>
-      <c r="J172" t="s">
-        <v>548</v>
-      </c>
-      <c r="K172" t="s">
-        <v>561</v>
-      </c>
-      <c r="L172" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>178</v>
-      </c>
-      <c r="C173" t="s">
-        <v>187</v>
-      </c>
-      <c r="D173" t="s">
-        <v>359</v>
-      </c>
-      <c r="E173">
-        <v>95000172</v>
-      </c>
-      <c r="F173" t="s">
-        <v>370</v>
-      </c>
-      <c r="G173" t="s">
-        <v>371</v>
-      </c>
-      <c r="H173" t="s">
-        <v>373</v>
-      </c>
-      <c r="I173" t="s">
-        <v>377</v>
-      </c>
-      <c r="J173" t="s">
-        <v>549</v>
-      </c>
-      <c r="K173" t="s">
-        <v>558</v>
-      </c>
-      <c r="L173" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>179</v>
-      </c>
-      <c r="C174" t="s">
-        <v>187</v>
-      </c>
-      <c r="D174" t="s">
-        <v>360</v>
-      </c>
-      <c r="E174">
-        <v>95000173</v>
-      </c>
-      <c r="F174" t="s">
-        <v>370</v>
-      </c>
-      <c r="G174" t="s">
-        <v>371</v>
-      </c>
-      <c r="H174" t="s">
-        <v>372</v>
-      </c>
-      <c r="I174" t="s">
-        <v>377</v>
-      </c>
-      <c r="J174" t="s">
-        <v>550</v>
-      </c>
-      <c r="K174" t="s">
-        <v>558</v>
-      </c>
-      <c r="L174" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>180</v>
-      </c>
-      <c r="C175" t="s">
-        <v>187</v>
-      </c>
-      <c r="D175" t="s">
-        <v>361</v>
-      </c>
-      <c r="E175">
-        <v>95000174</v>
-      </c>
-      <c r="F175" t="s">
-        <v>370</v>
-      </c>
-      <c r="G175" t="s">
-        <v>371</v>
-      </c>
-      <c r="H175" t="s">
-        <v>374</v>
-      </c>
-      <c r="I175" t="s">
-        <v>377</v>
-      </c>
-      <c r="J175" t="s">
-        <v>551</v>
-      </c>
-      <c r="K175" t="s">
-        <v>559</v>
-      </c>
-      <c r="L175" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>181</v>
-      </c>
-      <c r="C176" t="s">
-        <v>187</v>
-      </c>
-      <c r="D176" t="s">
-        <v>362</v>
-      </c>
-      <c r="E176">
-        <v>95000175</v>
-      </c>
-      <c r="F176" t="s">
-        <v>370</v>
-      </c>
-      <c r="G176" t="s">
-        <v>371</v>
-      </c>
-      <c r="H176" t="s">
-        <v>375</v>
-      </c>
-      <c r="I176" t="s">
-        <v>377</v>
-      </c>
-      <c r="J176" t="s">
-        <v>552</v>
-      </c>
-      <c r="K176" t="s">
-        <v>560</v>
-      </c>
-      <c r="L176" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>182</v>
-      </c>
-      <c r="C177" t="s">
-        <v>187</v>
-      </c>
-      <c r="D177" t="s">
-        <v>363</v>
-      </c>
-      <c r="E177">
-        <v>95000176</v>
-      </c>
-      <c r="F177" t="s">
-        <v>370</v>
-      </c>
-      <c r="G177" t="s">
-        <v>371</v>
-      </c>
-      <c r="H177" t="s">
-        <v>373</v>
-      </c>
-      <c r="I177" t="s">
-        <v>377</v>
-      </c>
-      <c r="J177" t="s">
-        <v>553</v>
-      </c>
-      <c r="K177" t="s">
-        <v>558</v>
-      </c>
-      <c r="L177" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178" t="s">
-        <v>187</v>
-      </c>
-      <c r="D178" t="s">
-        <v>364</v>
-      </c>
-      <c r="E178">
-        <v>95000177</v>
-      </c>
-      <c r="F178" t="s">
-        <v>370</v>
-      </c>
-      <c r="G178" t="s">
-        <v>371</v>
-      </c>
-      <c r="H178" t="s">
-        <v>372</v>
-      </c>
-      <c r="I178" t="s">
-        <v>377</v>
-      </c>
-      <c r="J178" t="s">
-        <v>554</v>
-      </c>
-      <c r="K178" t="s">
-        <v>558</v>
-      </c>
-      <c r="L178" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>184</v>
-      </c>
-      <c r="C179" t="s">
-        <v>187</v>
-      </c>
-      <c r="D179" t="s">
-        <v>365</v>
-      </c>
-      <c r="E179">
-        <v>95000178</v>
-      </c>
-      <c r="F179" t="s">
-        <v>370</v>
-      </c>
-      <c r="G179" t="s">
-        <v>371</v>
-      </c>
-      <c r="H179" t="s">
-        <v>375</v>
-      </c>
-      <c r="I179" t="s">
-        <v>377</v>
-      </c>
-      <c r="J179" t="s">
-        <v>555</v>
-      </c>
-      <c r="K179" t="s">
-        <v>558</v>
-      </c>
-      <c r="L179" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>185</v>
-      </c>
-      <c r="C180" t="s">
-        <v>187</v>
-      </c>
-      <c r="D180" t="s">
-        <v>366</v>
-      </c>
-      <c r="E180">
-        <v>95000179</v>
-      </c>
-      <c r="F180" t="s">
-        <v>370</v>
-      </c>
-      <c r="G180" t="s">
-        <v>371</v>
-      </c>
-      <c r="H180" t="s">
-        <v>373</v>
-      </c>
-      <c r="I180" t="s">
-        <v>377</v>
-      </c>
-      <c r="J180" t="s">
-        <v>556</v>
-      </c>
-      <c r="K180" t="s">
-        <v>559</v>
-      </c>
-      <c r="L180" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" t="s">
-        <v>187</v>
-      </c>
-      <c r="D181" t="s">
-        <v>367</v>
-      </c>
-      <c r="E181">
-        <v>95000180</v>
-      </c>
-      <c r="F181" t="s">
-        <v>370</v>
-      </c>
-      <c r="G181" t="s">
-        <v>371</v>
-      </c>
-      <c r="H181" t="s">
-        <v>374</v>
-      </c>
-      <c r="I181" t="s">
-        <v>377</v>
-      </c>
-      <c r="J181" t="s">
-        <v>557</v>
-      </c>
-      <c r="K181" t="s">
-        <v>560</v>
-      </c>
-      <c r="L181" t="s">
-        <v>566</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Student_List_Upload_File.xlsx
+++ b/Student_List_Upload_File.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 9\SEP490\UniEXETask-SourceCode\uniexetask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E340B6C4-9351-4066-8018-185B6C4623A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC58383-957A-4F14-9BA6-E2D56969D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -964,9 +977,6 @@
     <t>mentor5@uniexetask.com</t>
   </si>
   <si>
-    <t>Binh Gold</t>
-  </si>
-  <si>
     <t>hb1234tv@gmail.com</t>
   </si>
   <si>
@@ -1454,6 +1464,9 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>Le Hoa Binh</t>
   </si>
 </sst>
 </file>
@@ -1535,9 +1548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1575,9 +1588,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1610,26 +1623,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1662,26 +1658,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1858,7 +1837,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,7 +1856,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1898,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1915,16 +1894,17 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
       </c>
       <c r="E2">
         <v>96700001</v>
@@ -1942,7 +1922,7 @@
         <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K2" t="s">
         <v>307</v>
@@ -1953,16 +1933,17 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
         <v>317</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>318</v>
       </c>
       <c r="E3">
         <v>96700002</v>
@@ -1980,7 +1961,7 @@
         <v>303</v>
       </c>
       <c r="J3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K3" t="s">
         <v>307</v>
@@ -1991,16 +1972,17 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
         <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
       </c>
       <c r="E4">
         <v>96700003</v>
@@ -2018,7 +2000,7 @@
         <v>303</v>
       </c>
       <c r="J4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K4" t="s">
         <v>308</v>
@@ -2029,16 +2011,17 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
         <v>322</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>323</v>
       </c>
       <c r="E5">
         <v>96700004</v>
@@ -2056,7 +2039,7 @@
         <v>303</v>
       </c>
       <c r="J5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K5" t="s">
         <v>305</v>
@@ -2067,16 +2050,17 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
         <v>324</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>325</v>
       </c>
       <c r="E6">
         <v>96700005</v>
@@ -2094,7 +2078,7 @@
         <v>303</v>
       </c>
       <c r="J6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K6" t="s">
         <v>307</v>
@@ -2105,16 +2089,17 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
         <v>327</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>328</v>
       </c>
       <c r="E7">
         <v>96700006</v>
@@ -2132,7 +2117,7 @@
         <v>303</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K7" t="s">
         <v>307</v>
@@ -2143,6 +2128,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2170,7 +2156,7 @@
         <v>303</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K8" t="s">
         <v>305</v>
@@ -2181,6 +2167,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2208,7 +2195,7 @@
         <v>303</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K9" t="s">
         <v>306</v>
@@ -2219,6 +2206,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2246,7 +2234,7 @@
         <v>303</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K10" t="s">
         <v>305</v>
@@ -2257,6 +2245,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2284,7 +2273,7 @@
         <v>303</v>
       </c>
       <c r="J11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K11" t="s">
         <v>305</v>
@@ -2295,6 +2284,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2322,7 +2312,7 @@
         <v>303</v>
       </c>
       <c r="J12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K12" t="s">
         <v>307</v>
@@ -2333,6 +2323,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2360,7 +2351,7 @@
         <v>303</v>
       </c>
       <c r="J13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K13" t="s">
         <v>307</v>
@@ -2371,6 +2362,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2398,7 +2390,7 @@
         <v>303</v>
       </c>
       <c r="J14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K14" t="s">
         <v>306</v>
@@ -2409,6 +2401,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2436,7 +2429,7 @@
         <v>303</v>
       </c>
       <c r="J15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K15" t="s">
         <v>307</v>
@@ -2447,6 +2440,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2474,7 +2468,7 @@
         <v>303</v>
       </c>
       <c r="J16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K16" t="s">
         <v>306</v>
@@ -2485,6 +2479,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2512,7 +2507,7 @@
         <v>303</v>
       </c>
       <c r="J17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K17" t="s">
         <v>305</v>
@@ -2523,6 +2518,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2550,7 +2546,7 @@
         <v>303</v>
       </c>
       <c r="J18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K18" t="s">
         <v>307</v>
@@ -2561,6 +2557,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2588,7 +2585,7 @@
         <v>303</v>
       </c>
       <c r="J19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K19" t="s">
         <v>308</v>
@@ -2599,6 +2596,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2626,7 +2624,7 @@
         <v>303</v>
       </c>
       <c r="J20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K20" t="s">
         <v>308</v>
@@ -2637,6 +2635,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2664,7 +2663,7 @@
         <v>303</v>
       </c>
       <c r="J21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K21" t="s">
         <v>305</v>
@@ -2675,6 +2674,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2702,7 +2702,7 @@
         <v>303</v>
       </c>
       <c r="J22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K22" t="s">
         <v>308</v>
@@ -2713,6 +2713,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2740,7 +2741,7 @@
         <v>303</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" t="s">
         <v>305</v>
@@ -2751,6 +2752,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2778,7 +2780,7 @@
         <v>303</v>
       </c>
       <c r="J24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K24" t="s">
         <v>308</v>
@@ -2789,6 +2791,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2816,7 +2819,7 @@
         <v>303</v>
       </c>
       <c r="J25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K25" t="s">
         <v>308</v>
@@ -2827,6 +2830,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2854,7 +2858,7 @@
         <v>303</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K26" t="s">
         <v>308</v>
@@ -2865,6 +2869,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2892,7 +2897,7 @@
         <v>303</v>
       </c>
       <c r="J27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K27" t="s">
         <v>308</v>
@@ -2903,6 +2908,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2930,7 +2936,7 @@
         <v>303</v>
       </c>
       <c r="J28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K28" t="s">
         <v>305</v>
@@ -2941,6 +2947,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2968,7 +2975,7 @@
         <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K29" t="s">
         <v>305</v>
@@ -2979,6 +2986,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3006,7 +3014,7 @@
         <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K30" t="s">
         <v>306</v>
@@ -3017,6 +3025,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3044,7 +3053,7 @@
         <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K31" t="s">
         <v>308</v>
@@ -3055,6 +3064,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3082,7 +3092,7 @@
         <v>303</v>
       </c>
       <c r="J32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K32" t="s">
         <v>307</v>
@@ -3093,6 +3103,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3120,7 +3131,7 @@
         <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K33" t="s">
         <v>308</v>
@@ -3131,6 +3142,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3158,7 +3170,7 @@
         <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
         <v>308</v>
@@ -3169,6 +3181,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3196,7 +3209,7 @@
         <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K35" t="s">
         <v>306</v>
@@ -3207,6 +3220,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3234,7 +3248,7 @@
         <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
         <v>305</v>
@@ -3245,6 +3259,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3272,7 +3287,7 @@
         <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s">
         <v>305</v>
@@ -3283,6 +3298,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3310,7 +3326,7 @@
         <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K38" t="s">
         <v>305</v>
@@ -3321,6 +3337,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3348,7 +3365,7 @@
         <v>304</v>
       </c>
       <c r="J39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K39" t="s">
         <v>307</v>
@@ -3359,6 +3376,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3386,7 +3404,7 @@
         <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K40" t="s">
         <v>308</v>
@@ -3397,6 +3415,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3424,7 +3443,7 @@
         <v>304</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s">
         <v>305</v>
@@ -3435,6 +3454,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -3462,7 +3482,7 @@
         <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
         <v>307</v>
@@ -3473,6 +3493,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -3500,7 +3521,7 @@
         <v>304</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s">
         <v>306</v>
@@ -3511,6 +3532,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -3538,7 +3560,7 @@
         <v>304</v>
       </c>
       <c r="J44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
         <v>307</v>
@@ -3549,6 +3571,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -3576,7 +3599,7 @@
         <v>304</v>
       </c>
       <c r="J45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s">
         <v>308</v>
@@ -3587,6 +3610,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -3614,7 +3638,7 @@
         <v>304</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s">
         <v>307</v>
@@ -3625,6 +3649,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -3652,7 +3677,7 @@
         <v>304</v>
       </c>
       <c r="J47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K47" t="s">
         <v>307</v>
@@ -3663,6 +3688,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -3690,7 +3716,7 @@
         <v>304</v>
       </c>
       <c r="J48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K48" t="s">
         <v>305</v>
@@ -3701,6 +3727,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -3728,7 +3755,7 @@
         <v>304</v>
       </c>
       <c r="J49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s">
         <v>305</v>
@@ -3739,6 +3766,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -3766,7 +3794,7 @@
         <v>304</v>
       </c>
       <c r="J50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K50" t="s">
         <v>307</v>
@@ -3777,6 +3805,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -3804,7 +3833,7 @@
         <v>304</v>
       </c>
       <c r="J51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K51" t="s">
         <v>307</v>
@@ -3815,6 +3844,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -3842,7 +3872,7 @@
         <v>304</v>
       </c>
       <c r="J52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K52" t="s">
         <v>308</v>
@@ -3853,6 +3883,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3880,7 +3911,7 @@
         <v>304</v>
       </c>
       <c r="J53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
         <v>308</v>
@@ -3891,6 +3922,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -3918,7 +3950,7 @@
         <v>304</v>
       </c>
       <c r="J54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K54" t="s">
         <v>308</v>
@@ -3929,6 +3961,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -3956,7 +3989,7 @@
         <v>304</v>
       </c>
       <c r="J55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K55" t="s">
         <v>306</v>
@@ -3967,6 +4000,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -3994,7 +4028,7 @@
         <v>304</v>
       </c>
       <c r="J56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s">
         <v>306</v>
@@ -4005,6 +4039,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -4032,7 +4067,7 @@
         <v>304</v>
       </c>
       <c r="J57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s">
         <v>307</v>
@@ -4043,6 +4078,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -4070,7 +4106,7 @@
         <v>304</v>
       </c>
       <c r="J58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K58" t="s">
         <v>307</v>
@@ -4081,6 +4117,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -4108,7 +4145,7 @@
         <v>304</v>
       </c>
       <c r="J59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s">
         <v>308</v>
@@ -4119,6 +4156,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -4146,7 +4184,7 @@
         <v>304</v>
       </c>
       <c r="J60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K60" t="s">
         <v>308</v>
@@ -4157,6 +4195,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -4184,7 +4223,7 @@
         <v>304</v>
       </c>
       <c r="J61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s">
         <v>308</v>
@@ -4195,6 +4234,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -4222,7 +4262,7 @@
         <v>304</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K62" t="s">
         <v>307</v>
@@ -4233,6 +4273,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -4260,7 +4301,7 @@
         <v>304</v>
       </c>
       <c r="J63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s">
         <v>305</v>
@@ -4271,6 +4312,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -4298,7 +4340,7 @@
         <v>304</v>
       </c>
       <c r="J64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K64" t="s">
         <v>307</v>
@@ -4309,6 +4351,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -4336,7 +4379,7 @@
         <v>304</v>
       </c>
       <c r="J65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K65" t="s">
         <v>307</v>
@@ -4347,6 +4390,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -4374,7 +4418,7 @@
         <v>304</v>
       </c>
       <c r="J66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K66" t="s">
         <v>306</v>
@@ -4385,6 +4429,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -4412,7 +4457,7 @@
         <v>304</v>
       </c>
       <c r="J67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K67" t="s">
         <v>307</v>
@@ -4423,6 +4468,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -4450,7 +4496,7 @@
         <v>303</v>
       </c>
       <c r="J68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K68" t="s">
         <v>306</v>
@@ -4461,6 +4507,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -4488,7 +4535,7 @@
         <v>303</v>
       </c>
       <c r="J69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K69" t="s">
         <v>308</v>
@@ -4499,6 +4546,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -4526,7 +4574,7 @@
         <v>303</v>
       </c>
       <c r="J70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K70" t="s">
         <v>308</v>
@@ -4537,6 +4585,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -4564,7 +4613,7 @@
         <v>303</v>
       </c>
       <c r="J71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K71" t="s">
         <v>308</v>
@@ -4575,6 +4624,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -4602,7 +4652,7 @@
         <v>303</v>
       </c>
       <c r="J72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K72" t="s">
         <v>305</v>
@@ -4613,6 +4663,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -4640,7 +4691,7 @@
         <v>303</v>
       </c>
       <c r="J73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K73" t="s">
         <v>306</v>
@@ -4651,6 +4702,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -4678,7 +4730,7 @@
         <v>303</v>
       </c>
       <c r="J74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K74" t="s">
         <v>305</v>
@@ -4689,6 +4741,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -4716,7 +4769,7 @@
         <v>303</v>
       </c>
       <c r="J75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K75" t="s">
         <v>306</v>
@@ -4727,6 +4780,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -4754,7 +4808,7 @@
         <v>303</v>
       </c>
       <c r="J76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K76" t="s">
         <v>308</v>
@@ -4765,6 +4819,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -4792,7 +4847,7 @@
         <v>303</v>
       </c>
       <c r="J77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K77" t="s">
         <v>308</v>
@@ -4803,6 +4858,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -4830,7 +4886,7 @@
         <v>303</v>
       </c>
       <c r="J78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K78" t="s">
         <v>307</v>
@@ -4841,6 +4897,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -4868,7 +4925,7 @@
         <v>303</v>
       </c>
       <c r="J79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K79" t="s">
         <v>305</v>
@@ -4879,6 +4936,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -4906,7 +4964,7 @@
         <v>303</v>
       </c>
       <c r="J80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K80" t="s">
         <v>308</v>
@@ -4917,6 +4975,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -4944,7 +5003,7 @@
         <v>303</v>
       </c>
       <c r="J81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K81" t="s">
         <v>305</v>
@@ -4955,6 +5014,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -4982,7 +5042,7 @@
         <v>303</v>
       </c>
       <c r="J82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K82" t="s">
         <v>305</v>
@@ -4993,6 +5053,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -5020,7 +5081,7 @@
         <v>303</v>
       </c>
       <c r="J83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K83" t="s">
         <v>306</v>
@@ -5031,6 +5092,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -5058,7 +5120,7 @@
         <v>303</v>
       </c>
       <c r="J84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K84" t="s">
         <v>305</v>
@@ -5069,6 +5131,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -5096,7 +5159,7 @@
         <v>303</v>
       </c>
       <c r="J85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K85" t="s">
         <v>308</v>
@@ -5107,6 +5170,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -5134,7 +5198,7 @@
         <v>303</v>
       </c>
       <c r="J86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K86" t="s">
         <v>307</v>
@@ -5145,6 +5209,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -5172,7 +5237,7 @@
         <v>303</v>
       </c>
       <c r="J87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K87" t="s">
         <v>306</v>
@@ -5183,6 +5248,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -5210,7 +5276,7 @@
         <v>303</v>
       </c>
       <c r="J88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K88" t="s">
         <v>306</v>
@@ -5221,6 +5287,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -5248,7 +5315,7 @@
         <v>303</v>
       </c>
       <c r="J89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K89" t="s">
         <v>305</v>
@@ -5259,6 +5326,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -5286,7 +5354,7 @@
         <v>303</v>
       </c>
       <c r="J90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K90" t="s">
         <v>307</v>
@@ -5297,6 +5365,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -5324,7 +5393,7 @@
         <v>303</v>
       </c>
       <c r="J91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K91" t="s">
         <v>305</v>
@@ -5335,6 +5404,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -5362,7 +5432,7 @@
         <v>303</v>
       </c>
       <c r="J92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K92" t="s">
         <v>307</v>
@@ -5373,6 +5443,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -5400,7 +5471,7 @@
         <v>303</v>
       </c>
       <c r="J93" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K93" t="s">
         <v>306</v>
@@ -5411,6 +5482,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -5438,7 +5510,7 @@
         <v>303</v>
       </c>
       <c r="J94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K94" t="s">
         <v>307</v>
@@ -5449,6 +5521,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -5476,7 +5549,7 @@
         <v>303</v>
       </c>
       <c r="J95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K95" t="s">
         <v>308</v>
@@ -5487,6 +5560,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -5514,7 +5588,7 @@
         <v>303</v>
       </c>
       <c r="J96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K96" t="s">
         <v>305</v>
@@ -5525,6 +5599,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -5552,7 +5627,7 @@
         <v>303</v>
       </c>
       <c r="J97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K97" t="s">
         <v>305</v>
@@ -5563,6 +5638,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -5590,7 +5666,7 @@
         <v>304</v>
       </c>
       <c r="J98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K98" t="s">
         <v>307</v>
@@ -5601,6 +5677,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -5628,7 +5705,7 @@
         <v>304</v>
       </c>
       <c r="J99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K99" t="s">
         <v>305</v>
@@ -5639,6 +5716,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -5666,7 +5744,7 @@
         <v>304</v>
       </c>
       <c r="J100" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K100" t="s">
         <v>308</v>
@@ -5677,6 +5755,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -5704,7 +5783,7 @@
         <v>304</v>
       </c>
       <c r="J101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K101" t="s">
         <v>306</v>
@@ -5715,6 +5794,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -5742,7 +5822,7 @@
         <v>304</v>
       </c>
       <c r="J102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K102" t="s">
         <v>306</v>
@@ -5753,6 +5833,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -5780,7 +5861,7 @@
         <v>304</v>
       </c>
       <c r="J103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K103" t="s">
         <v>305</v>
@@ -5791,6 +5872,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -5818,7 +5900,7 @@
         <v>304</v>
       </c>
       <c r="J104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K104" t="s">
         <v>307</v>
@@ -5829,6 +5911,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -5856,7 +5939,7 @@
         <v>304</v>
       </c>
       <c r="J105" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K105" t="s">
         <v>306</v>
@@ -5867,6 +5950,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -5894,7 +5978,7 @@
         <v>304</v>
       </c>
       <c r="J106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K106" t="s">
         <v>305</v>
@@ -5905,6 +5989,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -5932,7 +6017,7 @@
         <v>304</v>
       </c>
       <c r="J107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K107" t="s">
         <v>306</v>
@@ -5943,6 +6028,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -5970,7 +6056,7 @@
         <v>304</v>
       </c>
       <c r="J108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K108" t="s">
         <v>308</v>
@@ -5981,6 +6067,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -6008,7 +6095,7 @@
         <v>304</v>
       </c>
       <c r="J109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K109" t="s">
         <v>306</v>
@@ -6019,6 +6106,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -6046,7 +6134,7 @@
         <v>304</v>
       </c>
       <c r="J110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K110" t="s">
         <v>308</v>
@@ -6057,6 +6145,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -6084,7 +6173,7 @@
         <v>304</v>
       </c>
       <c r="J111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K111" t="s">
         <v>307</v>
@@ -6095,6 +6184,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -6122,7 +6212,7 @@
         <v>304</v>
       </c>
       <c r="J112" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K112" t="s">
         <v>308</v>
@@ -6133,6 +6223,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -6160,7 +6251,7 @@
         <v>304</v>
       </c>
       <c r="J113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K113" t="s">
         <v>307</v>
@@ -6171,6 +6262,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -6198,7 +6290,7 @@
         <v>304</v>
       </c>
       <c r="J114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K114" t="s">
         <v>308</v>
@@ -6209,6 +6301,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -6236,7 +6329,7 @@
         <v>304</v>
       </c>
       <c r="J115" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K115" t="s">
         <v>307</v>
@@ -6247,6 +6340,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -6274,7 +6368,7 @@
         <v>304</v>
       </c>
       <c r="J116" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K116" t="s">
         <v>308</v>
@@ -6285,6 +6379,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -6312,7 +6407,7 @@
         <v>304</v>
       </c>
       <c r="J117" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K117" t="s">
         <v>306</v>
@@ -6323,6 +6418,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -6350,7 +6446,7 @@
         <v>304</v>
       </c>
       <c r="J118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K118" t="s">
         <v>306</v>
@@ -6361,6 +6457,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -6388,7 +6485,7 @@
         <v>304</v>
       </c>
       <c r="J119" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K119" t="s">
         <v>308</v>
@@ -6399,6 +6496,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -6426,7 +6524,7 @@
         <v>304</v>
       </c>
       <c r="J120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K120" t="s">
         <v>306</v>
@@ -6437,6 +6535,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -6464,7 +6563,7 @@
         <v>304</v>
       </c>
       <c r="J121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K121" t="s">
         <v>305</v>
@@ -6475,6 +6574,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -6502,7 +6602,7 @@
         <v>304</v>
       </c>
       <c r="J122" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K122" t="s">
         <v>305</v>
@@ -6513,6 +6613,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -6540,7 +6641,7 @@
         <v>304</v>
       </c>
       <c r="J123" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K123" t="s">
         <v>308</v>
@@ -6551,6 +6652,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -6578,7 +6680,7 @@
         <v>304</v>
       </c>
       <c r="J124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K124" t="s">
         <v>307</v>
@@ -6589,6 +6691,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -6616,7 +6719,7 @@
         <v>304</v>
       </c>
       <c r="J125" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K125" t="s">
         <v>307</v>
@@ -6627,6 +6730,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -6654,7 +6758,7 @@
         <v>304</v>
       </c>
       <c r="J126" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K126" t="s">
         <v>305</v>
@@ -6665,6 +6769,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -6692,7 +6797,7 @@
         <v>304</v>
       </c>
       <c r="J127" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K127" t="s">
         <v>306</v>
@@ -6703,6 +6808,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -6730,7 +6836,7 @@
         <v>303</v>
       </c>
       <c r="J128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K128" t="s">
         <v>307</v>
@@ -6741,6 +6847,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -6768,7 +6875,7 @@
         <v>303</v>
       </c>
       <c r="J129" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K129" t="s">
         <v>308</v>
@@ -6779,6 +6886,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -6806,7 +6914,7 @@
         <v>303</v>
       </c>
       <c r="J130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K130" t="s">
         <v>307</v>
@@ -6817,6 +6925,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
+        <f t="shared" ref="A131:A151" si="2">ROW()-1</f>
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -6844,7 +6953,7 @@
         <v>303</v>
       </c>
       <c r="J131" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K131" t="s">
         <v>306</v>
@@ -6855,6 +6964,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -6882,7 +6992,7 @@
         <v>303</v>
       </c>
       <c r="J132" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K132" t="s">
         <v>308</v>
@@ -6893,6 +7003,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -6920,7 +7031,7 @@
         <v>303</v>
       </c>
       <c r="J133" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K133" t="s">
         <v>306</v>
@@ -6931,6 +7042,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -6958,7 +7070,7 @@
         <v>303</v>
       </c>
       <c r="J134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K134" t="s">
         <v>306</v>
@@ -6969,6 +7081,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -6996,7 +7109,7 @@
         <v>303</v>
       </c>
       <c r="J135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K135" t="s">
         <v>305</v>
@@ -7007,6 +7120,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -7034,7 +7148,7 @@
         <v>303</v>
       </c>
       <c r="J136" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K136" t="s">
         <v>307</v>
@@ -7045,6 +7159,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -7072,7 +7187,7 @@
         <v>303</v>
       </c>
       <c r="J137" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K137" t="s">
         <v>305</v>
@@ -7083,6 +7198,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -7110,7 +7226,7 @@
         <v>303</v>
       </c>
       <c r="J138" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K138" t="s">
         <v>305</v>
@@ -7121,6 +7237,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -7148,7 +7265,7 @@
         <v>303</v>
       </c>
       <c r="J139" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K139" t="s">
         <v>307</v>
@@ -7159,6 +7276,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -7186,7 +7304,7 @@
         <v>303</v>
       </c>
       <c r="J140" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K140" t="s">
         <v>308</v>
@@ -7197,6 +7315,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -7224,7 +7343,7 @@
         <v>303</v>
       </c>
       <c r="J141" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K141" t="s">
         <v>308</v>
@@ -7235,6 +7354,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -7262,7 +7382,7 @@
         <v>303</v>
       </c>
       <c r="J142" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K142" t="s">
         <v>308</v>
@@ -7273,6 +7393,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -7300,7 +7421,7 @@
         <v>303</v>
       </c>
       <c r="J143" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K143" t="s">
         <v>306</v>
@@ -7311,6 +7432,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -7338,7 +7460,7 @@
         <v>303</v>
       </c>
       <c r="J144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K144" t="s">
         <v>308</v>
@@ -7349,6 +7471,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -7376,7 +7499,7 @@
         <v>303</v>
       </c>
       <c r="J145" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K145" t="s">
         <v>308</v>
@@ -7387,6 +7510,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -7414,7 +7538,7 @@
         <v>303</v>
       </c>
       <c r="J146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K146" t="s">
         <v>308</v>
@@ -7425,6 +7549,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -7452,7 +7577,7 @@
         <v>303</v>
       </c>
       <c r="J147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K147" t="s">
         <v>307</v>
@@ -7463,6 +7588,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -7490,7 +7616,7 @@
         <v>303</v>
       </c>
       <c r="J148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K148" t="s">
         <v>305</v>
@@ -7501,6 +7627,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -7528,7 +7655,7 @@
         <v>303</v>
       </c>
       <c r="J149" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K149" t="s">
         <v>305</v>
@@ -7539,6 +7666,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -7566,7 +7694,7 @@
         <v>303</v>
       </c>
       <c r="J150" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K150" t="s">
         <v>308</v>
@@ -7577,6 +7705,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -7604,7 +7733,7 @@
         <v>303</v>
       </c>
       <c r="J151" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K151" t="s">
         <v>308</v>

--- a/Student_List_Upload_File.xlsx
+++ b/Student_List_Upload_File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEP490\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC58383-957A-4F14-9BA6-E2D56969D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4464AF-ADB3-4A3B-AF56-4341F7352792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="476">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -485,18 +482,12 @@
     <t>Bùi Văn Thu</t>
   </si>
   <si>
-    <t>Uniexetask123456</t>
-  </si>
-  <si>
     <t>student1@generated.edu.vn</t>
   </si>
   <si>
     <t>student2@generated.edu.vn</t>
   </si>
   <si>
-    <t>student3@generated.edu.vn</t>
-  </si>
-  <si>
     <t>student4@generated.edu.vn</t>
   </si>
   <si>
@@ -983,27 +974,9 @@
     <t>SE169696</t>
   </si>
   <si>
-    <t>Nguyen Van An</t>
-  </si>
-  <si>
-    <t>ht1234tv@fpt.edu.vn</t>
-  </si>
-  <si>
     <t>SE168080</t>
   </si>
   <si>
-    <t>Le Thi Mai</t>
-  </si>
-  <si>
-    <t>mai1234@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>Tran Thi Lan</t>
-  </si>
-  <si>
-    <t>lan5678@fpt.edu.vn</t>
-  </si>
-  <si>
     <t>Pham Minh Tu</t>
   </si>
   <si>
@@ -1467,13 +1440,34 @@
   </si>
   <si>
     <t>Le Hoa Binh</t>
+  </si>
+  <si>
+    <t>phansongthao204@gmail.com</t>
+  </si>
+  <si>
+    <t>student2uniexetask@gmail.com</t>
+  </si>
+  <si>
+    <t>student3uniexetask@gmail.com</t>
+  </si>
+  <si>
+    <t>student4uniexetask@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê lâm</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Trung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,6 +1479,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1522,16 +1524,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1834,29 +1839,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1874,10 +1878,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1888,338 +1892,311 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E2">
+        <v>311</v>
+      </c>
+      <c r="D2">
         <v>96700001</v>
       </c>
+      <c r="E2" t="s">
+        <v>293</v>
+      </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H2" t="s">
         <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3">
+        <v>473</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3">
         <v>96700002</v>
       </c>
+      <c r="E3" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K3" t="s">
-        <v>307</v>
-      </c>
-      <c r="L3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E4">
+        <v>474</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4">
         <v>96700003</v>
       </c>
+      <c r="E4" t="s">
+        <v>293</v>
+      </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="J4" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="K4" t="s">
         <v>308</v>
       </c>
-      <c r="L4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5">
+        <v>475</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5">
         <v>96700004</v>
       </c>
+      <c r="E5" t="s">
+        <v>293</v>
+      </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J5" t="s">
         <v>302</v>
       </c>
-      <c r="I5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" t="s">
-        <v>431</v>
-      </c>
       <c r="K5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6">
+        <v>315</v>
+      </c>
+      <c r="D6">
         <v>96700005</v>
       </c>
+      <c r="E6" t="s">
+        <v>293</v>
+      </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
         <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="K6" t="s">
         <v>307</v>
       </c>
-      <c r="L6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7">
+        <v>318</v>
+      </c>
+      <c r="D7">
         <v>96700006</v>
       </c>
+      <c r="E7" t="s">
+        <v>293</v>
+      </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" t="s">
         <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K7" t="s">
         <v>307</v>
       </c>
-      <c r="L7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8">
+        <v>149</v>
+      </c>
+      <c r="D8">
         <v>96700007</v>
       </c>
+      <c r="E8" t="s">
+        <v>292</v>
+      </c>
       <c r="F8" t="s">
         <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="J8" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>150</v>
       </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>96700008</v>
       </c>
+      <c r="E9" t="s">
+        <v>292</v>
+      </c>
       <c r="F9" t="s">
         <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
         <v>300</v>
       </c>
       <c r="I9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" t="s">
         <v>303</v>
-      </c>
-      <c r="J9" t="s">
-        <v>330</v>
       </c>
       <c r="K9" t="s">
         <v>306</v>
       </c>
-      <c r="L9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10">
         <v>96700009</v>
+      </c>
+      <c r="E10" t="s">
+        <v>292</v>
       </c>
       <c r="F10" t="s">
         <v>295</v>
@@ -2228,388 +2205,358 @@
         <v>298</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="J10" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="K10" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11">
         <v>96700010</v>
       </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
       <c r="F11" t="s">
         <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
         <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="J11" t="s">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12">
+        <v>152</v>
+      </c>
+      <c r="D12">
         <v>96700011</v>
       </c>
+      <c r="E12" t="s">
+        <v>292</v>
+      </c>
       <c r="F12" t="s">
         <v>295</v>
       </c>
       <c r="G12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
         <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>303</v>
+        <v>425</v>
       </c>
       <c r="J12" t="s">
-        <v>434</v>
+        <v>304</v>
       </c>
       <c r="K12" t="s">
-        <v>307</v>
-      </c>
-      <c r="L12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13">
+        <v>153</v>
+      </c>
+      <c r="D13">
         <v>96700012</v>
       </c>
+      <c r="E13" t="s">
+        <v>292</v>
+      </c>
       <c r="F13" t="s">
         <v>295</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>303</v>
+        <v>429</v>
       </c>
       <c r="J13" t="s">
-        <v>438</v>
+        <v>304</v>
       </c>
       <c r="K13" t="s">
-        <v>307</v>
-      </c>
-      <c r="L13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14">
+        <v>154</v>
+      </c>
+      <c r="D14">
         <v>96700013</v>
       </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
       <c r="F14" t="s">
         <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H14" t="s">
         <v>300</v>
       </c>
       <c r="I14" t="s">
+        <v>428</v>
+      </c>
+      <c r="J14" t="s">
         <v>303</v>
-      </c>
-      <c r="J14" t="s">
-        <v>437</v>
       </c>
       <c r="K14" t="s">
         <v>306</v>
       </c>
-      <c r="L14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15">
+        <v>155</v>
+      </c>
+      <c r="D15">
         <v>96700014</v>
       </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
       <c r="F15" t="s">
         <v>295</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="J15" t="s">
-        <v>436</v>
+        <v>304</v>
       </c>
       <c r="K15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16">
+        <v>156</v>
+      </c>
+      <c r="D16">
         <v>96700015</v>
       </c>
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
       <c r="F16" t="s">
         <v>295</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I16" t="s">
+        <v>426</v>
+      </c>
+      <c r="J16" t="s">
         <v>303</v>
-      </c>
-      <c r="J16" t="s">
-        <v>435</v>
       </c>
       <c r="K16" t="s">
         <v>306</v>
       </c>
-      <c r="L16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17">
+        <v>157</v>
+      </c>
+      <c r="D17">
         <v>96700016</v>
       </c>
+      <c r="E17" t="s">
+        <v>292</v>
+      </c>
       <c r="F17" t="s">
         <v>295</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" t="s">
+        <v>423</v>
+      </c>
+      <c r="J17" t="s">
         <v>302</v>
       </c>
-      <c r="I17" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" t="s">
-        <v>432</v>
-      </c>
       <c r="K17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18">
+        <v>158</v>
+      </c>
+      <c r="D18">
         <v>96700017</v>
       </c>
+      <c r="E18" t="s">
+        <v>292</v>
+      </c>
       <c r="F18" t="s">
         <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H18" t="s">
         <v>300</v>
       </c>
       <c r="I18" t="s">
-        <v>303</v>
+        <v>430</v>
       </c>
       <c r="J18" t="s">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="K18" t="s">
-        <v>307</v>
-      </c>
-      <c r="L18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19">
+        <v>159</v>
+      </c>
+      <c r="D19">
         <v>96700018</v>
       </c>
+      <c r="E19" t="s">
+        <v>292</v>
+      </c>
       <c r="F19" t="s">
         <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I19" t="s">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="J19" t="s">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="K19" t="s">
-        <v>308</v>
-      </c>
-      <c r="L19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20">
+        <v>160</v>
+      </c>
+      <c r="D20">
         <v>96700019</v>
+      </c>
+      <c r="E20" t="s">
+        <v>292</v>
       </c>
       <c r="F20" t="s">
         <v>295</v>
@@ -2618,76 +2565,70 @@
         <v>298</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>303</v>
+        <v>432</v>
       </c>
       <c r="J20" t="s">
-        <v>441</v>
+        <v>305</v>
       </c>
       <c r="K20" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21">
+        <v>161</v>
+      </c>
+      <c r="D21">
         <v>96700020</v>
       </c>
+      <c r="E21" t="s">
+        <v>292</v>
+      </c>
       <c r="F21" t="s">
         <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H21" t="s">
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="J21" t="s">
-        <v>442</v>
+        <v>302</v>
       </c>
       <c r="K21" t="s">
-        <v>305</v>
-      </c>
-      <c r="L21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22">
+        <v>162</v>
+      </c>
+      <c r="D22">
         <v>96700021</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
       </c>
       <c r="F22" t="s">
         <v>295</v>
@@ -2696,37 +2637,34 @@
         <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="J22" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="K22" t="s">
-        <v>308</v>
-      </c>
-      <c r="L22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23">
+        <v>163</v>
+      </c>
+      <c r="D23">
         <v>96700022</v>
+      </c>
+      <c r="E23" t="s">
+        <v>292</v>
       </c>
       <c r="F23" t="s">
         <v>295</v>
@@ -2735,76 +2673,70 @@
         <v>298</v>
       </c>
       <c r="H23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I23" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="J23" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="K23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24">
+        <v>164</v>
+      </c>
+      <c r="D24">
         <v>96700023</v>
       </c>
+      <c r="E24" t="s">
+        <v>292</v>
+      </c>
       <c r="F24" t="s">
         <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="J24" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="K24" t="s">
-        <v>308</v>
-      </c>
-      <c r="L24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25">
+        <v>165</v>
+      </c>
+      <c r="D25">
         <v>96700024</v>
+      </c>
+      <c r="E25" t="s">
+        <v>292</v>
       </c>
       <c r="F25" t="s">
         <v>295</v>
@@ -2813,76 +2745,70 @@
         <v>298</v>
       </c>
       <c r="H25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="J25" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="K25" t="s">
-        <v>308</v>
-      </c>
-      <c r="L25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26">
+        <v>166</v>
+      </c>
+      <c r="D26">
         <v>96700025</v>
       </c>
+      <c r="E26" t="s">
+        <v>292</v>
+      </c>
       <c r="F26" t="s">
         <v>295</v>
       </c>
       <c r="G26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I26" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="J26" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="K26" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27">
+        <v>167</v>
+      </c>
+      <c r="D27">
         <v>96700026</v>
+      </c>
+      <c r="E27" t="s">
+        <v>292</v>
       </c>
       <c r="F27" t="s">
         <v>295</v>
@@ -2891,193 +2817,178 @@
         <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="J27" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s">
-        <v>308</v>
-      </c>
-      <c r="L27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28">
+        <v>168</v>
+      </c>
+      <c r="D28">
         <v>96700027</v>
       </c>
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
       <c r="F28" t="s">
         <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="J28" t="s">
-        <v>443</v>
+        <v>302</v>
       </c>
       <c r="K28" t="s">
-        <v>305</v>
-      </c>
-      <c r="L28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29">
+        <v>169</v>
+      </c>
+      <c r="D29">
         <v>96700028</v>
       </c>
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
       <c r="F29" t="s">
         <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H29" t="s">
         <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="J29" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
-      </c>
-      <c r="L29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30">
+        <v>170</v>
+      </c>
+      <c r="D30">
         <v>96700029</v>
       </c>
+      <c r="E30" t="s">
+        <v>292</v>
+      </c>
       <c r="F30" t="s">
         <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I30" t="s">
+        <v>330</v>
+      </c>
+      <c r="J30" t="s">
         <v>303</v>
-      </c>
-      <c r="J30" t="s">
-        <v>339</v>
       </c>
       <c r="K30" t="s">
         <v>306</v>
       </c>
-      <c r="L30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31">
+        <v>171</v>
+      </c>
+      <c r="D31">
         <v>96700030</v>
       </c>
+      <c r="E31" t="s">
+        <v>292</v>
+      </c>
       <c r="F31" t="s">
         <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="J31" t="s">
-        <v>444</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
-      </c>
-      <c r="L31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32">
+        <v>172</v>
+      </c>
+      <c r="D32">
         <v>96700031</v>
+      </c>
+      <c r="E32" t="s">
+        <v>292</v>
       </c>
       <c r="F32" t="s">
         <v>295</v>
@@ -3086,466 +2997,430 @@
         <v>298</v>
       </c>
       <c r="H32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="J32" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
-      </c>
-      <c r="L32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33">
+        <v>173</v>
+      </c>
+      <c r="D33">
         <v>96700032</v>
       </c>
+      <c r="E33" t="s">
+        <v>292</v>
+      </c>
       <c r="F33" t="s">
         <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="J33" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
-      </c>
-      <c r="L33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34">
+        <v>174</v>
+      </c>
+      <c r="D34">
         <v>96700033</v>
       </c>
+      <c r="E34" t="s">
+        <v>292</v>
+      </c>
       <c r="F34" t="s">
         <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H34" t="s">
         <v>300</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
-      </c>
-      <c r="L34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35">
+        <v>175</v>
+      </c>
+      <c r="D35">
         <v>96700034</v>
       </c>
+      <c r="E35" t="s">
+        <v>292</v>
+      </c>
       <c r="F35" t="s">
         <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I35" t="s">
+        <v>437</v>
+      </c>
+      <c r="J35" t="s">
         <v>303</v>
-      </c>
-      <c r="J35" t="s">
-        <v>446</v>
       </c>
       <c r="K35" t="s">
         <v>306</v>
       </c>
-      <c r="L35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36">
+        <v>176</v>
+      </c>
+      <c r="D36">
         <v>96700035</v>
       </c>
+      <c r="E36" t="s">
+        <v>292</v>
+      </c>
       <c r="F36" t="s">
         <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H36" t="s">
         <v>300</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
-      </c>
-      <c r="L36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37">
+        <v>177</v>
+      </c>
+      <c r="D37">
         <v>96700036</v>
       </c>
+      <c r="E37" t="s">
+        <v>292</v>
+      </c>
       <c r="F37" t="s">
         <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H37" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" t="s">
+        <v>334</v>
+      </c>
+      <c r="J37" t="s">
         <v>302</v>
       </c>
-      <c r="I37" t="s">
-        <v>303</v>
-      </c>
-      <c r="J37" t="s">
-        <v>343</v>
-      </c>
       <c r="K37" t="s">
-        <v>305</v>
-      </c>
-      <c r="L37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38">
+        <v>178</v>
+      </c>
+      <c r="D38">
         <v>96700037</v>
       </c>
+      <c r="E38" t="s">
+        <v>292</v>
+      </c>
       <c r="F38" t="s">
         <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>438</v>
       </c>
       <c r="J38" t="s">
-        <v>447</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
-      </c>
-      <c r="L38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39">
+        <v>179</v>
+      </c>
+      <c r="D39">
         <v>96700038</v>
       </c>
+      <c r="E39" t="s">
+        <v>292</v>
+      </c>
       <c r="F39" t="s">
         <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H39" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I39" t="s">
+        <v>439</v>
+      </c>
+      <c r="J39" t="s">
         <v>304</v>
       </c>
-      <c r="J39" t="s">
-        <v>448</v>
-      </c>
       <c r="K39" t="s">
-        <v>307</v>
-      </c>
-      <c r="L39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40">
+        <v>180</v>
+      </c>
+      <c r="D40">
         <v>96700039</v>
       </c>
+      <c r="E40" t="s">
+        <v>292</v>
+      </c>
       <c r="F40" t="s">
         <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="J40" t="s">
-        <v>449</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>308</v>
-      </c>
-      <c r="L40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41">
+        <v>181</v>
+      </c>
+      <c r="D41">
         <v>96700040</v>
       </c>
+      <c r="E41" t="s">
+        <v>292</v>
+      </c>
       <c r="F41" t="s">
         <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
         <v>302</v>
       </c>
-      <c r="I41" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" t="s">
-        <v>344</v>
-      </c>
       <c r="K41" t="s">
-        <v>305</v>
-      </c>
-      <c r="L41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42">
+        <v>182</v>
+      </c>
+      <c r="D42">
         <v>96700041</v>
       </c>
+      <c r="E42" t="s">
+        <v>292</v>
+      </c>
       <c r="F42" t="s">
         <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
         <v>304</v>
       </c>
-      <c r="J42" t="s">
-        <v>345</v>
-      </c>
       <c r="K42" t="s">
-        <v>307</v>
-      </c>
-      <c r="L42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43">
+        <v>183</v>
+      </c>
+      <c r="D43">
         <v>96700042</v>
       </c>
+      <c r="E43" t="s">
+        <v>292</v>
+      </c>
       <c r="F43" t="s">
         <v>295</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
         <v>306</v>
       </c>
-      <c r="L43" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44">
+        <v>184</v>
+      </c>
+      <c r="D44">
         <v>96700043</v>
+      </c>
+      <c r="E44" t="s">
+        <v>292</v>
       </c>
       <c r="F44" t="s">
         <v>295</v>
@@ -3557,34 +3432,31 @@
         <v>301</v>
       </c>
       <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
         <v>304</v>
       </c>
-      <c r="J44" t="s">
-        <v>347</v>
-      </c>
       <c r="K44" t="s">
-        <v>307</v>
-      </c>
-      <c r="L44" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45">
+        <v>185</v>
+      </c>
+      <c r="D45">
         <v>96700044</v>
+      </c>
+      <c r="E45" t="s">
+        <v>292</v>
       </c>
       <c r="F45" t="s">
         <v>295</v>
@@ -3596,112 +3468,103 @@
         <v>301</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s">
-        <v>308</v>
-      </c>
-      <c r="L45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" t="s">
-        <v>189</v>
-      </c>
-      <c r="E46">
+        <v>186</v>
+      </c>
+      <c r="D46">
         <v>96700045</v>
       </c>
+      <c r="E46" t="s">
+        <v>292</v>
+      </c>
       <c r="F46" t="s">
         <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" t="s">
         <v>304</v>
       </c>
-      <c r="J46" t="s">
-        <v>349</v>
-      </c>
       <c r="K46" t="s">
-        <v>307</v>
-      </c>
-      <c r="L46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47">
+        <v>187</v>
+      </c>
+      <c r="D47">
         <v>96700046</v>
       </c>
+      <c r="E47" t="s">
+        <v>292</v>
+      </c>
       <c r="F47" t="s">
         <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I47" t="s">
+        <v>341</v>
+      </c>
+      <c r="J47" t="s">
         <v>304</v>
       </c>
-      <c r="J47" t="s">
-        <v>350</v>
-      </c>
       <c r="K47" t="s">
-        <v>307</v>
-      </c>
-      <c r="L47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48">
+        <v>188</v>
+      </c>
+      <c r="D48">
         <v>96700047</v>
+      </c>
+      <c r="E48" t="s">
+        <v>292</v>
       </c>
       <c r="F48" t="s">
         <v>295</v>
@@ -3713,73 +3576,67 @@
         <v>301</v>
       </c>
       <c r="I48" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="J48" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="K48" t="s">
-        <v>305</v>
-      </c>
-      <c r="L48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49">
+        <v>189</v>
+      </c>
+      <c r="D49">
         <v>96700048</v>
       </c>
+      <c r="E49" t="s">
+        <v>292</v>
+      </c>
       <c r="F49" t="s">
         <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H49" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
         <v>302</v>
       </c>
-      <c r="I49" t="s">
-        <v>304</v>
-      </c>
-      <c r="J49" t="s">
-        <v>352</v>
-      </c>
       <c r="K49" t="s">
-        <v>305</v>
-      </c>
-      <c r="L49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50">
+        <v>190</v>
+      </c>
+      <c r="D50">
         <v>96700049</v>
+      </c>
+      <c r="E50" t="s">
+        <v>292</v>
       </c>
       <c r="F50" t="s">
         <v>295</v>
@@ -3791,151 +3648,139 @@
         <v>301</v>
       </c>
       <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
         <v>304</v>
       </c>
-      <c r="J50" t="s">
-        <v>353</v>
-      </c>
       <c r="K50" t="s">
-        <v>307</v>
-      </c>
-      <c r="L50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51">
+        <v>191</v>
+      </c>
+      <c r="D51">
         <v>96700050</v>
       </c>
+      <c r="E51" t="s">
+        <v>292</v>
+      </c>
       <c r="F51" t="s">
         <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
         <v>304</v>
       </c>
-      <c r="J51" t="s">
-        <v>450</v>
-      </c>
       <c r="K51" t="s">
-        <v>307</v>
-      </c>
-      <c r="L51" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52">
+        <v>192</v>
+      </c>
+      <c r="D52">
         <v>96700051</v>
       </c>
+      <c r="E52" t="s">
+        <v>292</v>
+      </c>
       <c r="F52" t="s">
         <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="J52" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="K52" t="s">
-        <v>308</v>
-      </c>
-      <c r="L52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53">
+        <v>193</v>
+      </c>
+      <c r="D53">
         <v>96700052</v>
       </c>
+      <c r="E53" t="s">
+        <v>292</v>
+      </c>
       <c r="F53" t="s">
         <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H53" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>442</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>305</v>
       </c>
       <c r="K53" t="s">
-        <v>308</v>
-      </c>
-      <c r="L53" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54">
+        <v>194</v>
+      </c>
+      <c r="D54">
         <v>96700053</v>
+      </c>
+      <c r="E54" t="s">
+        <v>292</v>
       </c>
       <c r="F54" t="s">
         <v>295</v>
@@ -3947,229 +3792,211 @@
         <v>301</v>
       </c>
       <c r="I54" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="J54" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="K54" t="s">
-        <v>308</v>
-      </c>
-      <c r="L54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55">
+        <v>195</v>
+      </c>
+      <c r="D55">
         <v>96700054</v>
       </c>
+      <c r="E55" t="s">
+        <v>292</v>
+      </c>
       <c r="F55" t="s">
         <v>295</v>
       </c>
       <c r="G55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I55" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="J55" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="K55" t="s">
         <v>306</v>
       </c>
-      <c r="L55" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" t="s">
-        <v>199</v>
-      </c>
-      <c r="E56">
+        <v>196</v>
+      </c>
+      <c r="D56">
         <v>96700055</v>
       </c>
+      <c r="E56" t="s">
+        <v>292</v>
+      </c>
       <c r="F56" t="s">
         <v>295</v>
       </c>
       <c r="G56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H56" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I56" t="s">
-        <v>304</v>
+        <v>443</v>
       </c>
       <c r="J56" t="s">
-        <v>452</v>
+        <v>303</v>
       </c>
       <c r="K56" t="s">
         <v>306</v>
       </c>
-      <c r="L56" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57">
+        <v>197</v>
+      </c>
+      <c r="D57">
         <v>96700056</v>
       </c>
+      <c r="E57" t="s">
+        <v>292</v>
+      </c>
       <c r="F57" t="s">
         <v>295</v>
       </c>
       <c r="G57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I57" t="s">
+        <v>348</v>
+      </c>
+      <c r="J57" t="s">
         <v>304</v>
       </c>
-      <c r="J57" t="s">
-        <v>357</v>
-      </c>
       <c r="K57" t="s">
-        <v>307</v>
-      </c>
-      <c r="L57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58">
+        <v>198</v>
+      </c>
+      <c r="D58">
         <v>96700057</v>
       </c>
+      <c r="E58" t="s">
+        <v>292</v>
+      </c>
       <c r="F58" t="s">
         <v>295</v>
       </c>
       <c r="G58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I58" t="s">
+        <v>349</v>
+      </c>
+      <c r="J58" t="s">
         <v>304</v>
       </c>
-      <c r="J58" t="s">
-        <v>358</v>
-      </c>
       <c r="K58" t="s">
-        <v>307</v>
-      </c>
-      <c r="L58" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59">
+        <v>199</v>
+      </c>
+      <c r="D59">
         <v>96700058</v>
       </c>
+      <c r="E59" t="s">
+        <v>292</v>
+      </c>
       <c r="F59" t="s">
         <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H59" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I59" t="s">
-        <v>304</v>
+        <v>444</v>
       </c>
       <c r="J59" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="K59" t="s">
-        <v>308</v>
-      </c>
-      <c r="L59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60">
+        <v>200</v>
+      </c>
+      <c r="D60">
         <v>96700059</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
       </c>
       <c r="F60" t="s">
         <v>295</v>
@@ -4181,151 +4008,139 @@
         <v>301</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="J60" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="K60" t="s">
-        <v>308</v>
-      </c>
-      <c r="L60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61">
+        <v>201</v>
+      </c>
+      <c r="D61">
         <v>96700060</v>
       </c>
+      <c r="E61" t="s">
+        <v>292</v>
+      </c>
       <c r="F61" t="s">
         <v>295</v>
       </c>
       <c r="G61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I61" t="s">
-        <v>304</v>
+        <v>445</v>
       </c>
       <c r="J61" t="s">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="K61" t="s">
-        <v>308</v>
-      </c>
-      <c r="L61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62">
+        <v>202</v>
+      </c>
+      <c r="D62">
         <v>96700061</v>
       </c>
+      <c r="E62" t="s">
+        <v>292</v>
+      </c>
       <c r="F62" t="s">
         <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H62" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I62" t="s">
+        <v>446</v>
+      </c>
+      <c r="J62" t="s">
         <v>304</v>
       </c>
-      <c r="J62" t="s">
-        <v>455</v>
-      </c>
       <c r="K62" t="s">
-        <v>307</v>
-      </c>
-      <c r="L62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63">
+        <v>203</v>
+      </c>
+      <c r="D63">
         <v>96700062</v>
       </c>
+      <c r="E63" t="s">
+        <v>292</v>
+      </c>
       <c r="F63" t="s">
         <v>295</v>
       </c>
       <c r="G63" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H63" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I63" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="J63" t="s">
-        <v>456</v>
+        <v>302</v>
       </c>
       <c r="K63" t="s">
-        <v>305</v>
-      </c>
-      <c r="L63" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64">
+        <v>204</v>
+      </c>
+      <c r="D64">
         <v>96700063</v>
+      </c>
+      <c r="E64" t="s">
+        <v>292</v>
       </c>
       <c r="F64" t="s">
         <v>295</v>
@@ -4337,112 +4152,103 @@
         <v>301</v>
       </c>
       <c r="I64" t="s">
+        <v>351</v>
+      </c>
+      <c r="J64" t="s">
         <v>304</v>
       </c>
-      <c r="J64" t="s">
-        <v>360</v>
-      </c>
       <c r="K64" t="s">
-        <v>307</v>
-      </c>
-      <c r="L64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" t="s">
-        <v>208</v>
-      </c>
-      <c r="E65">
+        <v>205</v>
+      </c>
+      <c r="D65">
         <v>96700064</v>
       </c>
+      <c r="E65" t="s">
+        <v>292</v>
+      </c>
       <c r="F65" t="s">
         <v>295</v>
       </c>
       <c r="G65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I65" t="s">
+        <v>352</v>
+      </c>
+      <c r="J65" t="s">
         <v>304</v>
       </c>
-      <c r="J65" t="s">
-        <v>361</v>
-      </c>
       <c r="K65" t="s">
-        <v>307</v>
-      </c>
-      <c r="L65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66">
+        <v>206</v>
+      </c>
+      <c r="D66">
         <v>96700065</v>
       </c>
+      <c r="E66" t="s">
+        <v>292</v>
+      </c>
       <c r="F66" t="s">
         <v>295</v>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H66" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
-        <v>304</v>
+        <v>448</v>
       </c>
       <c r="J66" t="s">
-        <v>457</v>
+        <v>303</v>
       </c>
       <c r="K66" t="s">
         <v>306</v>
       </c>
-      <c r="L66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="1">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67">
+        <v>207</v>
+      </c>
+      <c r="D67">
         <v>96700066</v>
+      </c>
+      <c r="E67" t="s">
+        <v>292</v>
       </c>
       <c r="F67" t="s">
         <v>295</v>
@@ -4454,1246 +4260,1150 @@
         <v>301</v>
       </c>
       <c r="I67" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" t="s">
         <v>304</v>
       </c>
-      <c r="J67" t="s">
-        <v>362</v>
-      </c>
       <c r="K67" t="s">
-        <v>307</v>
-      </c>
-      <c r="L67" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" t="s">
-        <v>211</v>
-      </c>
-      <c r="E68">
+        <v>208</v>
+      </c>
+      <c r="D68">
         <v>96700067</v>
       </c>
+      <c r="E68" t="s">
+        <v>293</v>
+      </c>
       <c r="F68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I68" t="s">
+        <v>354</v>
+      </c>
+      <c r="J68" t="s">
         <v>303</v>
       </c>
-      <c r="J68" t="s">
-        <v>363</v>
-      </c>
       <c r="K68" t="s">
-        <v>306</v>
-      </c>
-      <c r="L68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69">
+        <v>209</v>
+      </c>
+      <c r="D69">
         <v>96700068</v>
       </c>
+      <c r="E69" t="s">
+        <v>293</v>
+      </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I69" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="J69" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="K69" t="s">
         <v>308</v>
       </c>
-      <c r="L69" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70">
+        <v>210</v>
+      </c>
+      <c r="D70">
         <v>96700069</v>
       </c>
+      <c r="E70" t="s">
+        <v>293</v>
+      </c>
       <c r="F70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
         <v>298</v>
       </c>
       <c r="H70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="J70" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="K70" t="s">
         <v>308</v>
       </c>
-      <c r="L70" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71">
+        <v>211</v>
+      </c>
+      <c r="D71">
         <v>96700070</v>
       </c>
+      <c r="E71" t="s">
+        <v>293</v>
+      </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H71" t="s">
         <v>300</v>
       </c>
       <c r="I71" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="J71" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="K71" t="s">
         <v>308</v>
       </c>
-      <c r="L71" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72">
+        <v>212</v>
+      </c>
+      <c r="D72">
         <v>96700071</v>
       </c>
+      <c r="E72" t="s">
+        <v>293</v>
+      </c>
       <c r="F72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G72" t="s">
         <v>298</v>
       </c>
       <c r="H72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I72" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="J72" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="K72" t="s">
-        <v>305</v>
-      </c>
-      <c r="L72" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" t="s">
-        <v>216</v>
-      </c>
-      <c r="E73">
+        <v>213</v>
+      </c>
+      <c r="D73">
         <v>96700072</v>
       </c>
+      <c r="E73" t="s">
+        <v>293</v>
+      </c>
       <c r="F73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I73" t="s">
+        <v>359</v>
+      </c>
+      <c r="J73" t="s">
         <v>303</v>
       </c>
-      <c r="J73" t="s">
-        <v>368</v>
-      </c>
       <c r="K73" t="s">
-        <v>306</v>
-      </c>
-      <c r="L73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" t="s">
-        <v>217</v>
-      </c>
-      <c r="E74">
+        <v>214</v>
+      </c>
+      <c r="D74">
         <v>96700073</v>
       </c>
+      <c r="E74" t="s">
+        <v>293</v>
+      </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H74" t="s">
+        <v>300</v>
+      </c>
+      <c r="I74" t="s">
+        <v>360</v>
+      </c>
+      <c r="J74" t="s">
         <v>302</v>
       </c>
-      <c r="I74" t="s">
-        <v>303</v>
-      </c>
-      <c r="J74" t="s">
-        <v>369</v>
-      </c>
       <c r="K74" t="s">
-        <v>305</v>
-      </c>
-      <c r="L74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75">
+        <v>215</v>
+      </c>
+      <c r="D75">
         <v>96700074</v>
       </c>
+      <c r="E75" t="s">
+        <v>293</v>
+      </c>
       <c r="F75" t="s">
+        <v>295</v>
+      </c>
+      <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="G75" t="s">
-        <v>298</v>
-      </c>
       <c r="H75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I75" t="s">
+        <v>361</v>
+      </c>
+      <c r="J75" t="s">
         <v>303</v>
       </c>
-      <c r="J75" t="s">
-        <v>370</v>
-      </c>
       <c r="K75" t="s">
-        <v>306</v>
-      </c>
-      <c r="L75" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76">
+        <v>216</v>
+      </c>
+      <c r="D76">
         <v>96700075</v>
       </c>
+      <c r="E76" t="s">
+        <v>293</v>
+      </c>
       <c r="F76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G76" t="s">
         <v>298</v>
       </c>
       <c r="H76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I76" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="J76" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="K76" t="s">
-        <v>308</v>
-      </c>
-      <c r="L76" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" t="s">
-        <v>220</v>
-      </c>
-      <c r="E77">
+        <v>217</v>
+      </c>
+      <c r="D77">
         <v>96700076</v>
       </c>
+      <c r="E77" t="s">
+        <v>293</v>
+      </c>
       <c r="F77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H77" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I77" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="J77" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="K77" t="s">
-        <v>308</v>
-      </c>
-      <c r="L77" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78">
+        <v>218</v>
+      </c>
+      <c r="D78">
         <v>96700077</v>
       </c>
+      <c r="E78" t="s">
+        <v>293</v>
+      </c>
       <c r="F78" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" t="s">
         <v>296</v>
       </c>
-      <c r="G78" t="s">
-        <v>298</v>
-      </c>
       <c r="H78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I78" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
       <c r="J78" t="s">
-        <v>458</v>
+        <v>304</v>
       </c>
       <c r="K78" t="s">
         <v>307</v>
       </c>
-      <c r="L78" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79">
+        <v>219</v>
+      </c>
+      <c r="D79">
         <v>96700078</v>
       </c>
+      <c r="E79" t="s">
+        <v>293</v>
+      </c>
       <c r="F79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H79" t="s">
         <v>300</v>
       </c>
       <c r="I79" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="J79" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="K79" t="s">
-        <v>305</v>
-      </c>
-      <c r="L79" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" t="s">
-        <v>223</v>
-      </c>
-      <c r="E80">
+        <v>220</v>
+      </c>
+      <c r="D80">
         <v>96700079</v>
       </c>
+      <c r="E80" t="s">
+        <v>293</v>
+      </c>
       <c r="F80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H80" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I80" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="J80" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="K80" t="s">
-        <v>308</v>
-      </c>
-      <c r="L80" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" t="s">
-        <v>224</v>
-      </c>
-      <c r="E81">
+        <v>221</v>
+      </c>
+      <c r="D81">
         <v>96700080</v>
       </c>
+      <c r="E81" t="s">
+        <v>293</v>
+      </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H81" t="s">
         <v>300</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="J81" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="K81" t="s">
-        <v>305</v>
-      </c>
-      <c r="L81" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" t="s">
-        <v>225</v>
-      </c>
-      <c r="E82">
+        <v>222</v>
+      </c>
+      <c r="D82">
         <v>96700081</v>
       </c>
+      <c r="E82" t="s">
+        <v>293</v>
+      </c>
       <c r="F82" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" t="s">
         <v>296</v>
       </c>
-      <c r="G82" t="s">
-        <v>298</v>
-      </c>
       <c r="H82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I82" t="s">
-        <v>303</v>
+        <v>450</v>
       </c>
       <c r="J82" t="s">
-        <v>459</v>
+        <v>302</v>
       </c>
       <c r="K82" t="s">
-        <v>305</v>
-      </c>
-      <c r="L82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" t="s">
-        <v>226</v>
-      </c>
-      <c r="E83">
+        <v>223</v>
+      </c>
+      <c r="D83">
         <v>96700082</v>
       </c>
+      <c r="E83" t="s">
+        <v>293</v>
+      </c>
       <c r="F83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G83" t="s">
         <v>298</v>
       </c>
       <c r="H83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I83" t="s">
+        <v>367</v>
+      </c>
+      <c r="J83" t="s">
         <v>303</v>
       </c>
-      <c r="J83" t="s">
-        <v>376</v>
-      </c>
       <c r="K83" t="s">
-        <v>306</v>
-      </c>
-      <c r="L83" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" t="s">
-        <v>227</v>
-      </c>
-      <c r="E84">
+        <v>224</v>
+      </c>
+      <c r="D84">
         <v>96700083</v>
       </c>
+      <c r="E84" t="s">
+        <v>293</v>
+      </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G84" t="s">
         <v>298</v>
       </c>
       <c r="H84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I84" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="J84" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="K84" t="s">
-        <v>305</v>
-      </c>
-      <c r="L84" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" t="s">
-        <v>228</v>
-      </c>
-      <c r="E85">
+        <v>225</v>
+      </c>
+      <c r="D85">
         <v>96700084</v>
       </c>
+      <c r="E85" t="s">
+        <v>293</v>
+      </c>
       <c r="F85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I85" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="J85" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="K85" t="s">
-        <v>308</v>
-      </c>
-      <c r="L85" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" t="s">
-        <v>229</v>
-      </c>
-      <c r="E86">
+        <v>226</v>
+      </c>
+      <c r="D86">
         <v>96700085</v>
       </c>
+      <c r="E86" t="s">
+        <v>293</v>
+      </c>
       <c r="F86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G86" t="s">
         <v>298</v>
       </c>
       <c r="H86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I86" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="J86" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="K86" t="s">
         <v>307</v>
       </c>
-      <c r="L86" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87">
+        <v>227</v>
+      </c>
+      <c r="D87">
         <v>96700086</v>
       </c>
+      <c r="E87" t="s">
+        <v>293</v>
+      </c>
       <c r="F87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G87" t="s">
         <v>298</v>
       </c>
       <c r="H87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I87" t="s">
+        <v>371</v>
+      </c>
+      <c r="J87" t="s">
         <v>303</v>
       </c>
-      <c r="J87" t="s">
-        <v>380</v>
-      </c>
       <c r="K87" t="s">
-        <v>306</v>
-      </c>
-      <c r="L87" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" t="s">
-        <v>231</v>
-      </c>
-      <c r="E88">
+        <v>228</v>
+      </c>
+      <c r="D88">
         <v>96700087</v>
       </c>
+      <c r="E88" t="s">
+        <v>293</v>
+      </c>
       <c r="F88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G88" t="s">
         <v>298</v>
       </c>
       <c r="H88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I88" t="s">
+        <v>372</v>
+      </c>
+      <c r="J88" t="s">
         <v>303</v>
       </c>
-      <c r="J88" t="s">
-        <v>381</v>
-      </c>
       <c r="K88" t="s">
-        <v>306</v>
-      </c>
-      <c r="L88" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89">
+        <v>229</v>
+      </c>
+      <c r="D89">
         <v>96700088</v>
       </c>
+      <c r="E89" t="s">
+        <v>293</v>
+      </c>
       <c r="F89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H89" t="s">
+        <v>300</v>
+      </c>
+      <c r="I89" t="s">
+        <v>373</v>
+      </c>
+      <c r="J89" t="s">
         <v>302</v>
       </c>
-      <c r="I89" t="s">
-        <v>303</v>
-      </c>
-      <c r="J89" t="s">
-        <v>382</v>
-      </c>
       <c r="K89" t="s">
-        <v>305</v>
-      </c>
-      <c r="L89" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90">
+        <v>230</v>
+      </c>
+      <c r="D90">
         <v>96700089</v>
       </c>
+      <c r="E90" t="s">
+        <v>293</v>
+      </c>
       <c r="F90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H90" t="s">
         <v>300</v>
       </c>
       <c r="I90" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="J90" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="K90" t="s">
-        <v>307</v>
-      </c>
-      <c r="L90" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" t="s">
-        <v>234</v>
-      </c>
-      <c r="E91">
+        <v>231</v>
+      </c>
+      <c r="D91">
         <v>96700090</v>
       </c>
+      <c r="E91" t="s">
+        <v>293</v>
+      </c>
       <c r="F91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H91" t="s">
         <v>300</v>
       </c>
       <c r="I91" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="J91" t="s">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="K91" t="s">
-        <v>305</v>
-      </c>
-      <c r="L91" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D92" t="s">
-        <v>235</v>
-      </c>
-      <c r="E92">
+        <v>232</v>
+      </c>
+      <c r="D92">
         <v>96700091</v>
       </c>
+      <c r="E92" t="s">
+        <v>293</v>
+      </c>
       <c r="F92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I92" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="J92" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="K92" t="s">
         <v>307</v>
       </c>
-      <c r="L92" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D93" t="s">
-        <v>236</v>
-      </c>
-      <c r="E93">
+        <v>233</v>
+      </c>
+      <c r="D93">
         <v>96700092</v>
       </c>
+      <c r="E93" t="s">
+        <v>293</v>
+      </c>
       <c r="F93" t="s">
+        <v>295</v>
+      </c>
+      <c r="G93" t="s">
         <v>296</v>
       </c>
-      <c r="G93" t="s">
-        <v>298</v>
-      </c>
       <c r="H93" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I93" t="s">
+        <v>451</v>
+      </c>
+      <c r="J93" t="s">
         <v>303</v>
       </c>
-      <c r="J93" t="s">
-        <v>460</v>
-      </c>
       <c r="K93" t="s">
-        <v>306</v>
-      </c>
-      <c r="L93" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" t="s">
-        <v>237</v>
-      </c>
-      <c r="E94">
+        <v>234</v>
+      </c>
+      <c r="D94">
         <v>96700093</v>
       </c>
+      <c r="E94" t="s">
+        <v>293</v>
+      </c>
       <c r="F94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H94" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I94" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="J94" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="K94" t="s">
         <v>307</v>
       </c>
-      <c r="L94" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" t="s">
-        <v>238</v>
-      </c>
-      <c r="E95">
+        <v>235</v>
+      </c>
+      <c r="D95">
         <v>96700094</v>
       </c>
+      <c r="E95" t="s">
+        <v>293</v>
+      </c>
       <c r="F95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G95" t="s">
         <v>298</v>
       </c>
       <c r="H95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I95" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="J95" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="K95" t="s">
-        <v>308</v>
-      </c>
-      <c r="L95" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" t="s">
-        <v>239</v>
-      </c>
-      <c r="E96">
+        <v>236</v>
+      </c>
+      <c r="D96">
         <v>96700095</v>
       </c>
+      <c r="E96" t="s">
+        <v>293</v>
+      </c>
       <c r="F96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G96" t="s">
         <v>298</v>
       </c>
       <c r="H96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I96" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="J96" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="K96" t="s">
-        <v>305</v>
-      </c>
-      <c r="L96" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" t="s">
-        <v>240</v>
-      </c>
-      <c r="E97">
+        <v>237</v>
+      </c>
+      <c r="D97">
         <v>96700096</v>
       </c>
+      <c r="E97" t="s">
+        <v>293</v>
+      </c>
       <c r="F97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H97" t="s">
         <v>300</v>
       </c>
       <c r="I97" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="J97" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="K97" t="s">
-        <v>305</v>
-      </c>
-      <c r="L97" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98" t="s">
-        <v>241</v>
-      </c>
-      <c r="E98">
+        <v>238</v>
+      </c>
+      <c r="D98">
         <v>96700097</v>
       </c>
+      <c r="E98" t="s">
+        <v>293</v>
+      </c>
       <c r="F98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I98" t="s">
+        <v>381</v>
+      </c>
+      <c r="J98" t="s">
         <v>304</v>
       </c>
-      <c r="J98" t="s">
-        <v>390</v>
-      </c>
       <c r="K98" t="s">
-        <v>307</v>
-      </c>
-      <c r="L98" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99">
+        <v>239</v>
+      </c>
+      <c r="D99">
         <v>96700098</v>
       </c>
+      <c r="E99" t="s">
+        <v>293</v>
+      </c>
       <c r="F99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G99" t="s">
         <v>298</v>
@@ -5702,76 +5412,70 @@
         <v>301</v>
       </c>
       <c r="I99" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="J99" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="K99" t="s">
-        <v>305</v>
-      </c>
-      <c r="L99" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100">
+        <v>240</v>
+      </c>
+      <c r="D100">
         <v>96700099</v>
       </c>
+      <c r="E100" t="s">
+        <v>293</v>
+      </c>
       <c r="F100" t="s">
+        <v>295</v>
+      </c>
+      <c r="G100" t="s">
         <v>296</v>
       </c>
-      <c r="G100" t="s">
-        <v>298</v>
-      </c>
       <c r="H100" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I100" t="s">
-        <v>304</v>
+        <v>452</v>
       </c>
       <c r="J100" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="K100" t="s">
-        <v>308</v>
-      </c>
-      <c r="L100" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" t="s">
-        <v>244</v>
-      </c>
-      <c r="E101">
+        <v>241</v>
+      </c>
+      <c r="D101">
         <v>96700100</v>
       </c>
+      <c r="E101" t="s">
+        <v>293</v>
+      </c>
       <c r="F101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G101" t="s">
         <v>298</v>
@@ -5780,76 +5484,70 @@
         <v>301</v>
       </c>
       <c r="I101" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="J101" t="s">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="K101" t="s">
-        <v>306</v>
-      </c>
-      <c r="L101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" t="s">
-        <v>245</v>
-      </c>
-      <c r="E102">
+        <v>242</v>
+      </c>
+      <c r="D102">
         <v>96700101</v>
       </c>
+      <c r="E102" t="s">
+        <v>293</v>
+      </c>
       <c r="F102" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102" t="s">
         <v>296</v>
       </c>
-      <c r="G102" t="s">
-        <v>298</v>
-      </c>
       <c r="H102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I102" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="J102" t="s">
-        <v>462</v>
+        <v>303</v>
       </c>
       <c r="K102" t="s">
-        <v>306</v>
-      </c>
-      <c r="L102" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
-      </c>
-      <c r="D103" t="s">
-        <v>246</v>
-      </c>
-      <c r="E103">
+        <v>243</v>
+      </c>
+      <c r="D103">
         <v>96700102</v>
       </c>
+      <c r="E103" t="s">
+        <v>293</v>
+      </c>
       <c r="F103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G103" t="s">
         <v>298</v>
@@ -5858,154 +5556,142 @@
         <v>301</v>
       </c>
       <c r="I103" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="J103" t="s">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="K103" t="s">
-        <v>305</v>
-      </c>
-      <c r="L103" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
-      </c>
-      <c r="D104" t="s">
-        <v>247</v>
-      </c>
-      <c r="E104">
+        <v>244</v>
+      </c>
+      <c r="D104">
         <v>96700103</v>
       </c>
+      <c r="E104" t="s">
+        <v>293</v>
+      </c>
       <c r="F104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I104" t="s">
+        <v>385</v>
+      </c>
+      <c r="J104" t="s">
         <v>304</v>
-      </c>
-      <c r="J104" t="s">
-        <v>394</v>
       </c>
       <c r="K104" t="s">
         <v>307</v>
       </c>
-      <c r="L104" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" t="s">
-        <v>248</v>
-      </c>
-      <c r="E105">
+        <v>245</v>
+      </c>
+      <c r="D105">
         <v>96700104</v>
       </c>
+      <c r="E105" t="s">
+        <v>293</v>
+      </c>
       <c r="F105" t="s">
+        <v>295</v>
+      </c>
+      <c r="G105" t="s">
         <v>296</v>
       </c>
-      <c r="G105" t="s">
-        <v>298</v>
-      </c>
       <c r="H105" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I105" t="s">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="J105" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="K105" t="s">
-        <v>306</v>
-      </c>
-      <c r="L105" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" t="s">
-        <v>249</v>
-      </c>
-      <c r="E106">
+        <v>246</v>
+      </c>
+      <c r="D106">
         <v>96700105</v>
       </c>
+      <c r="E106" t="s">
+        <v>293</v>
+      </c>
       <c r="F106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I106" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="J106" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="K106" t="s">
-        <v>305</v>
-      </c>
-      <c r="L106" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
-      </c>
-      <c r="D107" t="s">
-        <v>250</v>
-      </c>
-      <c r="E107">
+        <v>247</v>
+      </c>
+      <c r="D107">
         <v>96700106</v>
       </c>
+      <c r="E107" t="s">
+        <v>293</v>
+      </c>
       <c r="F107" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G107" t="s">
         <v>298</v>
@@ -6014,193 +5700,178 @@
         <v>301</v>
       </c>
       <c r="I107" t="s">
-        <v>304</v>
+        <v>387</v>
       </c>
       <c r="J107" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="K107" t="s">
-        <v>306</v>
-      </c>
-      <c r="L107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" t="s">
-        <v>251</v>
-      </c>
-      <c r="E108">
+        <v>248</v>
+      </c>
+      <c r="D108">
         <v>96700107</v>
       </c>
+      <c r="E108" t="s">
+        <v>293</v>
+      </c>
       <c r="F108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H108" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I108" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="J108" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="K108" t="s">
         <v>308</v>
       </c>
-      <c r="L108" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
-      </c>
-      <c r="D109" t="s">
-        <v>252</v>
-      </c>
-      <c r="E109">
+        <v>249</v>
+      </c>
+      <c r="D109">
         <v>96700108</v>
       </c>
+      <c r="E109" t="s">
+        <v>293</v>
+      </c>
       <c r="F109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I109" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="J109" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="K109" t="s">
-        <v>306</v>
-      </c>
-      <c r="L109" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" t="s">
-        <v>253</v>
-      </c>
-      <c r="E110">
+        <v>250</v>
+      </c>
+      <c r="D110">
         <v>96700109</v>
       </c>
+      <c r="E110" t="s">
+        <v>293</v>
+      </c>
       <c r="F110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I110" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="J110" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
       <c r="K110" t="s">
-        <v>308</v>
-      </c>
-      <c r="L110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
-      </c>
-      <c r="D111" t="s">
-        <v>254</v>
-      </c>
-      <c r="E111">
+        <v>251</v>
+      </c>
+      <c r="D111">
         <v>96700110</v>
       </c>
+      <c r="E111" t="s">
+        <v>293</v>
+      </c>
       <c r="F111" t="s">
+        <v>295</v>
+      </c>
+      <c r="G111" t="s">
         <v>296</v>
       </c>
-      <c r="G111" t="s">
-        <v>298</v>
-      </c>
       <c r="H111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I111" t="s">
+        <v>455</v>
+      </c>
+      <c r="J111" t="s">
         <v>304</v>
       </c>
-      <c r="J111" t="s">
-        <v>464</v>
-      </c>
       <c r="K111" t="s">
-        <v>307</v>
-      </c>
-      <c r="L111" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" t="s">
-        <v>255</v>
-      </c>
-      <c r="E112">
+        <v>252</v>
+      </c>
+      <c r="D112">
         <v>96700111</v>
       </c>
+      <c r="E112" t="s">
+        <v>293</v>
+      </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G112" t="s">
         <v>298</v>
@@ -6209,37 +5880,34 @@
         <v>301</v>
       </c>
       <c r="I112" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="J112" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="K112" t="s">
-        <v>308</v>
-      </c>
-      <c r="L112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113" t="s">
-        <v>256</v>
-      </c>
-      <c r="E113">
+        <v>253</v>
+      </c>
+      <c r="D113">
         <v>96700112</v>
       </c>
+      <c r="E113" t="s">
+        <v>293</v>
+      </c>
       <c r="F113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G113" t="s">
         <v>298</v>
@@ -6248,115 +5916,106 @@
         <v>301</v>
       </c>
       <c r="I113" t="s">
+        <v>392</v>
+      </c>
+      <c r="J113" t="s">
         <v>304</v>
       </c>
-      <c r="J113" t="s">
-        <v>401</v>
-      </c>
       <c r="K113" t="s">
-        <v>307</v>
-      </c>
-      <c r="L113" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
-      </c>
-      <c r="D114" t="s">
-        <v>257</v>
-      </c>
-      <c r="E114">
+        <v>254</v>
+      </c>
+      <c r="D114">
         <v>96700113</v>
       </c>
+      <c r="E114" t="s">
+        <v>293</v>
+      </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I114" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="J114" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="K114" t="s">
         <v>308</v>
       </c>
-      <c r="L114" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" t="s">
-        <v>258</v>
-      </c>
-      <c r="E115">
+        <v>255</v>
+      </c>
+      <c r="D115">
         <v>96700114</v>
       </c>
+      <c r="E115" t="s">
+        <v>293</v>
+      </c>
       <c r="F115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I115" t="s">
+        <v>394</v>
+      </c>
+      <c r="J115" t="s">
         <v>304</v>
       </c>
-      <c r="J115" t="s">
-        <v>403</v>
-      </c>
       <c r="K115" t="s">
-        <v>307</v>
-      </c>
-      <c r="L115" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
-      </c>
-      <c r="D116" t="s">
-        <v>259</v>
-      </c>
-      <c r="E116">
+        <v>256</v>
+      </c>
+      <c r="D116">
         <v>96700115</v>
       </c>
+      <c r="E116" t="s">
+        <v>293</v>
+      </c>
       <c r="F116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G116" t="s">
         <v>298</v>
@@ -6365,37 +6024,34 @@
         <v>301</v>
       </c>
       <c r="I116" t="s">
-        <v>304</v>
+        <v>395</v>
       </c>
       <c r="J116" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="K116" t="s">
-        <v>308</v>
-      </c>
-      <c r="L116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" t="s">
-        <v>260</v>
-      </c>
-      <c r="E117">
+        <v>257</v>
+      </c>
+      <c r="D117">
         <v>96700116</v>
       </c>
+      <c r="E117" t="s">
+        <v>293</v>
+      </c>
       <c r="F117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G117" t="s">
         <v>298</v>
@@ -6404,37 +6060,34 @@
         <v>301</v>
       </c>
       <c r="I117" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="J117" t="s">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="K117" t="s">
-        <v>306</v>
-      </c>
-      <c r="L117" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
-      </c>
-      <c r="D118" t="s">
-        <v>261</v>
-      </c>
-      <c r="E118">
+        <v>258</v>
+      </c>
+      <c r="D118">
         <v>96700117</v>
       </c>
+      <c r="E118" t="s">
+        <v>293</v>
+      </c>
       <c r="F118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G118" t="s">
         <v>298</v>
@@ -6443,154 +6096,142 @@
         <v>301</v>
       </c>
       <c r="I118" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="J118" t="s">
-        <v>406</v>
+        <v>303</v>
       </c>
       <c r="K118" t="s">
-        <v>306</v>
-      </c>
-      <c r="L118" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" t="s">
-        <v>262</v>
-      </c>
-      <c r="E119">
+        <v>259</v>
+      </c>
+      <c r="D119">
         <v>96700118</v>
       </c>
+      <c r="E119" t="s">
+        <v>293</v>
+      </c>
       <c r="F119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I119" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="J119" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s">
-        <v>308</v>
-      </c>
-      <c r="L119" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
-      </c>
-      <c r="D120" t="s">
-        <v>263</v>
-      </c>
-      <c r="E120">
+        <v>260</v>
+      </c>
+      <c r="D120">
         <v>96700119</v>
       </c>
+      <c r="E120" t="s">
+        <v>293</v>
+      </c>
       <c r="F120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G120" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I120" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="J120" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="K120" t="s">
-        <v>306</v>
-      </c>
-      <c r="L120" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
-      </c>
-      <c r="D121" t="s">
-        <v>264</v>
-      </c>
-      <c r="E121">
+        <v>261</v>
+      </c>
+      <c r="D121">
         <v>96700120</v>
       </c>
+      <c r="E121" t="s">
+        <v>293</v>
+      </c>
       <c r="F121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G121" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H121" t="s">
+        <v>301</v>
+      </c>
+      <c r="I121" t="s">
+        <v>400</v>
+      </c>
+      <c r="J121" t="s">
         <v>302</v>
       </c>
-      <c r="I121" t="s">
-        <v>304</v>
-      </c>
-      <c r="J121" t="s">
-        <v>409</v>
-      </c>
       <c r="K121" t="s">
-        <v>305</v>
-      </c>
-      <c r="L121" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
-      </c>
-      <c r="D122" t="s">
-        <v>265</v>
-      </c>
-      <c r="E122">
+        <v>262</v>
+      </c>
+      <c r="D122">
         <v>96700121</v>
       </c>
+      <c r="E122" t="s">
+        <v>293</v>
+      </c>
       <c r="F122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G122" t="s">
         <v>298</v>
@@ -6599,76 +6240,70 @@
         <v>301</v>
       </c>
       <c r="I122" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="J122" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="K122" t="s">
-        <v>305</v>
-      </c>
-      <c r="L122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
-      </c>
-      <c r="D123" t="s">
-        <v>266</v>
-      </c>
-      <c r="E123">
+        <v>263</v>
+      </c>
+      <c r="D123">
         <v>96700122</v>
       </c>
+      <c r="E123" t="s">
+        <v>293</v>
+      </c>
       <c r="F123" t="s">
+        <v>295</v>
+      </c>
+      <c r="G123" t="s">
         <v>296</v>
       </c>
-      <c r="G123" t="s">
-        <v>298</v>
-      </c>
       <c r="H123" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I123" t="s">
-        <v>304</v>
+        <v>456</v>
       </c>
       <c r="J123" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
       <c r="K123" t="s">
         <v>308</v>
       </c>
-      <c r="L123" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
-      </c>
-      <c r="D124" t="s">
-        <v>267</v>
-      </c>
-      <c r="E124">
+        <v>264</v>
+      </c>
+      <c r="D124">
         <v>96700123</v>
       </c>
+      <c r="E124" t="s">
+        <v>293</v>
+      </c>
       <c r="F124" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G124" t="s">
         <v>298</v>
@@ -6677,37 +6312,34 @@
         <v>301</v>
       </c>
       <c r="I124" t="s">
+        <v>402</v>
+      </c>
+      <c r="J124" t="s">
         <v>304</v>
-      </c>
-      <c r="J124" t="s">
-        <v>411</v>
       </c>
       <c r="K124" t="s">
         <v>307</v>
       </c>
-      <c r="L124" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
-      </c>
-      <c r="D125" t="s">
-        <v>268</v>
-      </c>
-      <c r="E125">
+        <v>265</v>
+      </c>
+      <c r="D125">
         <v>96700124</v>
       </c>
+      <c r="E125" t="s">
+        <v>293</v>
+      </c>
       <c r="F125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G125" t="s">
         <v>298</v>
@@ -6716,37 +6348,34 @@
         <v>301</v>
       </c>
       <c r="I125" t="s">
+        <v>403</v>
+      </c>
+      <c r="J125" t="s">
         <v>304</v>
       </c>
-      <c r="J125" t="s">
-        <v>412</v>
-      </c>
       <c r="K125" t="s">
-        <v>307</v>
-      </c>
-      <c r="L125" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
-      </c>
-      <c r="D126" t="s">
-        <v>269</v>
-      </c>
-      <c r="E126">
+        <v>266</v>
+      </c>
+      <c r="D126">
         <v>96700125</v>
       </c>
+      <c r="E126" t="s">
+        <v>293</v>
+      </c>
       <c r="F126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G126" t="s">
         <v>298</v>
@@ -6755,994 +6384,923 @@
         <v>301</v>
       </c>
       <c r="I126" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="J126" t="s">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="K126" t="s">
-        <v>305</v>
-      </c>
-      <c r="L126" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
-      </c>
-      <c r="D127" t="s">
-        <v>270</v>
-      </c>
-      <c r="E127">
+        <v>267</v>
+      </c>
+      <c r="D127">
         <v>96700126</v>
       </c>
+      <c r="E127" t="s">
+        <v>293</v>
+      </c>
       <c r="F127" t="s">
+        <v>295</v>
+      </c>
+      <c r="G127" t="s">
         <v>296</v>
       </c>
-      <c r="G127" t="s">
-        <v>298</v>
-      </c>
       <c r="H127" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I127" t="s">
-        <v>304</v>
+        <v>457</v>
       </c>
       <c r="J127" t="s">
-        <v>466</v>
+        <v>303</v>
       </c>
       <c r="K127" t="s">
-        <v>306</v>
-      </c>
-      <c r="L127" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
-      </c>
-      <c r="D128" t="s">
-        <v>271</v>
-      </c>
-      <c r="E128">
+        <v>268</v>
+      </c>
+      <c r="D128">
         <v>96700127</v>
       </c>
+      <c r="E128" t="s">
+        <v>294</v>
+      </c>
       <c r="F128" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G128" t="s">
         <v>298</v>
       </c>
       <c r="H128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I128" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="J128" t="s">
-        <v>414</v>
+        <v>304</v>
       </c>
       <c r="K128" t="s">
-        <v>307</v>
-      </c>
-      <c r="L128" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
-      </c>
-      <c r="D129" t="s">
-        <v>272</v>
-      </c>
-      <c r="E129">
+        <v>269</v>
+      </c>
+      <c r="D129">
         <v>96700128</v>
       </c>
+      <c r="E129" t="s">
+        <v>294</v>
+      </c>
       <c r="F129" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G129" t="s">
         <v>298</v>
       </c>
       <c r="H129" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I129" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="J129" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="K129" t="s">
-        <v>308</v>
-      </c>
-      <c r="L129" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
-      </c>
-      <c r="D130" t="s">
-        <v>273</v>
-      </c>
-      <c r="E130">
+        <v>270</v>
+      </c>
+      <c r="D130">
         <v>96700129</v>
       </c>
+      <c r="E130" t="s">
+        <v>294</v>
+      </c>
       <c r="F130" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G130" t="s">
         <v>298</v>
       </c>
       <c r="H130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I130" t="s">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="J130" t="s">
-        <v>416</v>
+        <v>304</v>
       </c>
       <c r="K130" t="s">
-        <v>307</v>
-      </c>
-      <c r="L130" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ref="A131:A151" si="2">ROW()-1</f>
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
-      </c>
-      <c r="D131" t="s">
-        <v>274</v>
-      </c>
-      <c r="E131">
+        <v>271</v>
+      </c>
+      <c r="D131">
         <v>96700130</v>
       </c>
+      <c r="E131" t="s">
+        <v>294</v>
+      </c>
       <c r="F131" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G131" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I131" t="s">
+        <v>458</v>
+      </c>
+      <c r="J131" t="s">
         <v>303</v>
       </c>
-      <c r="J131" t="s">
-        <v>467</v>
-      </c>
       <c r="K131" t="s">
-        <v>306</v>
-      </c>
-      <c r="L131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
-      </c>
-      <c r="D132" t="s">
-        <v>275</v>
-      </c>
-      <c r="E132">
+        <v>272</v>
+      </c>
+      <c r="D132">
         <v>96700131</v>
       </c>
+      <c r="E132" t="s">
+        <v>294</v>
+      </c>
       <c r="F132" t="s">
+        <v>295</v>
+      </c>
+      <c r="G132" t="s">
         <v>297</v>
       </c>
-      <c r="G132" t="s">
-        <v>298</v>
-      </c>
       <c r="H132" t="s">
         <v>300</v>
       </c>
       <c r="I132" t="s">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="J132" t="s">
-        <v>417</v>
+        <v>305</v>
       </c>
       <c r="K132" t="s">
-        <v>308</v>
-      </c>
-      <c r="L132" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" t="s">
-        <v>276</v>
-      </c>
-      <c r="E133">
+        <v>273</v>
+      </c>
+      <c r="D133">
         <v>96700132</v>
       </c>
+      <c r="E133" t="s">
+        <v>294</v>
+      </c>
       <c r="F133" t="s">
+        <v>295</v>
+      </c>
+      <c r="G133" t="s">
         <v>297</v>
       </c>
-      <c r="G133" t="s">
-        <v>298</v>
-      </c>
       <c r="H133" t="s">
         <v>300</v>
       </c>
       <c r="I133" t="s">
+        <v>409</v>
+      </c>
+      <c r="J133" t="s">
         <v>303</v>
       </c>
-      <c r="J133" t="s">
-        <v>418</v>
-      </c>
       <c r="K133" t="s">
-        <v>306</v>
-      </c>
-      <c r="L133" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
-      </c>
-      <c r="D134" t="s">
-        <v>277</v>
-      </c>
-      <c r="E134">
+        <v>274</v>
+      </c>
+      <c r="D134">
         <v>96700133</v>
       </c>
+      <c r="E134" t="s">
+        <v>294</v>
+      </c>
       <c r="F134" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G134" t="s">
         <v>298</v>
       </c>
       <c r="H134" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I134" t="s">
+        <v>410</v>
+      </c>
+      <c r="J134" t="s">
         <v>303</v>
       </c>
-      <c r="J134" t="s">
-        <v>419</v>
-      </c>
       <c r="K134" t="s">
-        <v>306</v>
-      </c>
-      <c r="L134" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" t="s">
-        <v>278</v>
-      </c>
-      <c r="E135">
+        <v>275</v>
+      </c>
+      <c r="D135">
         <v>96700134</v>
       </c>
+      <c r="E135" t="s">
+        <v>294</v>
+      </c>
       <c r="F135" t="s">
+        <v>295</v>
+      </c>
+      <c r="G135" t="s">
         <v>297</v>
       </c>
-      <c r="G135" t="s">
-        <v>298</v>
-      </c>
       <c r="H135" t="s">
         <v>300</v>
       </c>
       <c r="I135" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="J135" t="s">
-        <v>420</v>
+        <v>302</v>
       </c>
       <c r="K135" t="s">
-        <v>305</v>
-      </c>
-      <c r="L135" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
-      </c>
-      <c r="D136" t="s">
-        <v>279</v>
-      </c>
-      <c r="E136">
+        <v>276</v>
+      </c>
+      <c r="D136">
         <v>96700135</v>
       </c>
+      <c r="E136" t="s">
+        <v>294</v>
+      </c>
       <c r="F136" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G136" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I136" t="s">
-        <v>303</v>
+        <v>459</v>
       </c>
       <c r="J136" t="s">
-        <v>468</v>
+        <v>304</v>
       </c>
       <c r="K136" t="s">
-        <v>307</v>
-      </c>
-      <c r="L136" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
-      </c>
-      <c r="D137" t="s">
-        <v>280</v>
-      </c>
-      <c r="E137">
+        <v>277</v>
+      </c>
+      <c r="D137">
         <v>96700136</v>
       </c>
+      <c r="E137" t="s">
+        <v>294</v>
+      </c>
       <c r="F137" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G137" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H137" t="s">
+        <v>300</v>
+      </c>
+      <c r="I137" t="s">
+        <v>412</v>
+      </c>
+      <c r="J137" t="s">
         <v>302</v>
       </c>
-      <c r="I137" t="s">
-        <v>303</v>
-      </c>
-      <c r="J137" t="s">
-        <v>421</v>
-      </c>
       <c r="K137" t="s">
-        <v>305</v>
-      </c>
-      <c r="L137" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
-      </c>
-      <c r="D138" t="s">
-        <v>281</v>
-      </c>
-      <c r="E138">
+        <v>278</v>
+      </c>
+      <c r="D138">
         <v>96700137</v>
       </c>
+      <c r="E138" t="s">
+        <v>294</v>
+      </c>
       <c r="F138" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G138" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H138" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I138" t="s">
-        <v>303</v>
+        <v>460</v>
       </c>
       <c r="J138" t="s">
-        <v>469</v>
+        <v>302</v>
       </c>
       <c r="K138" t="s">
-        <v>305</v>
-      </c>
-      <c r="L138" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" t="s">
-        <v>282</v>
-      </c>
-      <c r="E139">
+        <v>279</v>
+      </c>
+      <c r="D139">
         <v>96700138</v>
       </c>
+      <c r="E139" t="s">
+        <v>294</v>
+      </c>
       <c r="F139" t="s">
+        <v>295</v>
+      </c>
+      <c r="G139" t="s">
         <v>297</v>
       </c>
-      <c r="G139" t="s">
-        <v>298</v>
-      </c>
       <c r="H139" t="s">
         <v>300</v>
       </c>
       <c r="I139" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
       <c r="J139" t="s">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="K139" t="s">
-        <v>307</v>
-      </c>
-      <c r="L139" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" t="s">
-        <v>283</v>
-      </c>
-      <c r="E140">
+        <v>280</v>
+      </c>
+      <c r="D140">
         <v>96700139</v>
       </c>
+      <c r="E140" t="s">
+        <v>294</v>
+      </c>
       <c r="F140" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G140" t="s">
         <v>298</v>
       </c>
       <c r="H140" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I140" t="s">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="J140" t="s">
-        <v>423</v>
+        <v>305</v>
       </c>
       <c r="K140" t="s">
-        <v>308</v>
-      </c>
-      <c r="L140" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141">
+        <v>281</v>
+      </c>
+      <c r="D141">
         <v>96700140</v>
       </c>
+      <c r="E141" t="s">
+        <v>294</v>
+      </c>
       <c r="F141" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" t="s">
         <v>297</v>
       </c>
-      <c r="G141" t="s">
-        <v>298</v>
-      </c>
       <c r="H141" t="s">
         <v>300</v>
       </c>
       <c r="I141" t="s">
-        <v>303</v>
+        <v>415</v>
       </c>
       <c r="J141" t="s">
-        <v>424</v>
+        <v>305</v>
       </c>
       <c r="K141" t="s">
-        <v>308</v>
-      </c>
-      <c r="L141" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
-      </c>
-      <c r="D142" t="s">
-        <v>285</v>
-      </c>
-      <c r="E142">
+        <v>282</v>
+      </c>
+      <c r="D142">
         <v>96700141</v>
       </c>
+      <c r="E142" t="s">
+        <v>294</v>
+      </c>
       <c r="F142" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G142" t="s">
         <v>298</v>
       </c>
       <c r="H142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I142" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="J142" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="K142" t="s">
-        <v>308</v>
-      </c>
-      <c r="L142" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" t="s">
-        <v>286</v>
-      </c>
-      <c r="E143">
+        <v>283</v>
+      </c>
+      <c r="D143">
         <v>96700142</v>
       </c>
+      <c r="E143" t="s">
+        <v>294</v>
+      </c>
       <c r="F143" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G143" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I143" t="s">
+        <v>461</v>
+      </c>
+      <c r="J143" t="s">
         <v>303</v>
       </c>
-      <c r="J143" t="s">
-        <v>470</v>
-      </c>
       <c r="K143" t="s">
-        <v>306</v>
-      </c>
-      <c r="L143" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
-      </c>
-      <c r="D144" t="s">
-        <v>287</v>
-      </c>
-      <c r="E144">
+        <v>284</v>
+      </c>
+      <c r="D144">
         <v>96700143</v>
       </c>
+      <c r="E144" t="s">
+        <v>294</v>
+      </c>
       <c r="F144" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I144" t="s">
-        <v>303</v>
+        <v>462</v>
       </c>
       <c r="J144" t="s">
-        <v>471</v>
+        <v>305</v>
       </c>
       <c r="K144" t="s">
-        <v>308</v>
-      </c>
-      <c r="L144" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D145" t="s">
-        <v>288</v>
-      </c>
-      <c r="E145">
+        <v>285</v>
+      </c>
+      <c r="D145">
         <v>96700144</v>
       </c>
+      <c r="E145" t="s">
+        <v>294</v>
+      </c>
       <c r="F145" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G145" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I145" t="s">
-        <v>303</v>
+        <v>463</v>
       </c>
       <c r="J145" t="s">
-        <v>472</v>
+        <v>305</v>
       </c>
       <c r="K145" t="s">
-        <v>308</v>
-      </c>
-      <c r="L145" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
-      </c>
-      <c r="D146" t="s">
-        <v>289</v>
-      </c>
-      <c r="E146">
+        <v>286</v>
+      </c>
+      <c r="D146">
         <v>96700145</v>
       </c>
+      <c r="E146" t="s">
+        <v>294</v>
+      </c>
       <c r="F146" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G146" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I146" t="s">
-        <v>303</v>
+        <v>464</v>
       </c>
       <c r="J146" t="s">
-        <v>473</v>
+        <v>305</v>
       </c>
       <c r="K146" t="s">
-        <v>308</v>
-      </c>
-      <c r="L146" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
-      </c>
-      <c r="D147" t="s">
-        <v>290</v>
-      </c>
-      <c r="E147">
+        <v>287</v>
+      </c>
+      <c r="D147">
         <v>96700146</v>
       </c>
+      <c r="E147" t="s">
+        <v>294</v>
+      </c>
       <c r="F147" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G147" t="s">
         <v>298</v>
       </c>
       <c r="H147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I147" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="J147" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="K147" t="s">
-        <v>307</v>
-      </c>
-      <c r="L147" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" t="s">
-        <v>291</v>
-      </c>
-      <c r="E148">
+        <v>288</v>
+      </c>
+      <c r="D148">
         <v>96700147</v>
       </c>
+      <c r="E148" t="s">
+        <v>294</v>
+      </c>
       <c r="F148" t="s">
+        <v>295</v>
+      </c>
+      <c r="G148" t="s">
         <v>297</v>
       </c>
-      <c r="G148" t="s">
-        <v>298</v>
-      </c>
       <c r="H148" t="s">
         <v>300</v>
       </c>
       <c r="I148" t="s">
-        <v>303</v>
+        <v>418</v>
       </c>
       <c r="J148" t="s">
-        <v>427</v>
+        <v>302</v>
       </c>
       <c r="K148" t="s">
-        <v>305</v>
-      </c>
-      <c r="L148" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
-      </c>
-      <c r="D149" t="s">
-        <v>292</v>
-      </c>
-      <c r="E149">
+        <v>289</v>
+      </c>
+      <c r="D149">
         <v>96700148</v>
       </c>
+      <c r="E149" t="s">
+        <v>294</v>
+      </c>
       <c r="F149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I149" t="s">
-        <v>303</v>
+        <v>465</v>
       </c>
       <c r="J149" t="s">
-        <v>474</v>
+        <v>302</v>
       </c>
       <c r="K149" t="s">
-        <v>305</v>
-      </c>
-      <c r="L149" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
-      </c>
-      <c r="D150" t="s">
-        <v>293</v>
-      </c>
-      <c r="E150">
+        <v>290</v>
+      </c>
+      <c r="D150">
         <v>96700149</v>
       </c>
+      <c r="E150" t="s">
+        <v>294</v>
+      </c>
       <c r="F150" t="s">
+        <v>295</v>
+      </c>
+      <c r="G150" t="s">
         <v>297</v>
       </c>
-      <c r="G150" t="s">
-        <v>298</v>
-      </c>
       <c r="H150" t="s">
         <v>300</v>
       </c>
       <c r="I150" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="J150" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="K150" t="s">
-        <v>308</v>
-      </c>
-      <c r="L150" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
-      </c>
-      <c r="D151" t="s">
+        <v>291</v>
+      </c>
+      <c r="D151">
+        <v>96700150</v>
+      </c>
+      <c r="E151" t="s">
         <v>294</v>
       </c>
-      <c r="E151">
-        <v>96700150</v>
-      </c>
       <c r="F151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G151" t="s">
         <v>298</v>
       </c>
       <c r="H151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I151" t="s">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="J151" t="s">
-        <v>429</v>
+        <v>305</v>
       </c>
       <c r="K151" t="s">
-        <v>308</v>
-      </c>
-      <c r="L151" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{E07E1570-D80D-44D5-9454-E132D339AF56}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{584AB805-8993-4FD9-BD1F-E6FDFA2190F1}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{D7F1905F-2FD2-48C3-8E89-C8700DE2590C}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{E0350D52-6D77-4224-AB23-59D353AB30F9}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{70BF3FDA-E615-4EE1-8434-6E807C7A8986}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>